--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.599999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>7.692307692307819</v>
+      </c>
       <c r="L12" t="n">
         <v>55.93000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-6.666666666666761</v>
+      </c>
       <c r="L13" t="n">
         <v>55.91</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.677419354838635</v>
+      </c>
       <c r="L14" t="n">
         <v>55.88000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.199999999999989</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>7.142857142857016</v>
+      </c>
       <c r="L15" t="n">
         <v>55.86</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.299999999999983</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-7.692307692307566</v>
+      </c>
       <c r="L16" t="n">
         <v>55.87</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.499999999999986</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>55.83000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3.499999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-4.000000000000068</v>
+      </c>
       <c r="L18" t="n">
         <v>55.79000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.499999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-44.44444444444436</v>
+      </c>
       <c r="L19" t="n">
         <v>55.78000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>4.299999999999983</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>23.80952380952387</v>
+      </c>
       <c r="L20" t="n">
         <v>55.78000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5.09999999999998</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-28.00000000000027</v>
+      </c>
       <c r="L21" t="n">
         <v>55.75000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.199999999999982</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-18.18181818181827</v>
+      </c>
       <c r="L22" t="n">
         <v>55.67</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.499999999999979</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.3636363636364</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L23" t="n">
         <v>55.60000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>5.899999999999977</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.474576271186473</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L24" t="n">
         <v>55.58000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>5.999999999999979</v>
       </c>
       <c r="K25" t="n">
-        <v>-10.00000000000006</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L25" t="n">
         <v>55.54000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>6.09999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.263157894736934</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L26" t="n">
         <v>55.5</v>
@@ -1613,7 +1635,7 @@
         <v>6.09999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>-11.11111111111117</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L27" t="n">
         <v>55.48</v>
@@ -1662,7 +1684,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.142857142857134</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>55.48</v>
@@ -1711,7 +1733,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.142857142857134</v>
+        <v>-47.82608695652155</v>
       </c>
       <c r="L29" t="n">
         <v>55.45</v>
@@ -1760,7 +1782,7 @@
         <v>6.799999999999976</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.64705882352943</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L30" t="n">
         <v>55.36</v>
@@ -1809,7 +1831,7 @@
         <v>6.799999999999976</v>
       </c>
       <c r="K31" t="n">
-        <v>-8.695652173913036</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>55.35</v>
@@ -1860,7 +1882,7 @@
         <v>7.099999999999973</v>
       </c>
       <c r="K32" t="n">
-        <v>-24.44444444444459</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>55.32000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>7.099999999999973</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.07317073170733</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>55.32000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>7.099999999999973</v>
       </c>
       <c r="K34" t="n">
-        <v>-15.00000000000012</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L34" t="n">
         <v>55.28000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>7.199999999999974</v>
       </c>
       <c r="K35" t="n">
-        <v>-20</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L35" t="n">
         <v>55.24000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>7.199999999999974</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.94871794871806</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L36" t="n">
         <v>55.21000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>7.499999999999972</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.000000000000089</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L37" t="n">
         <v>55.21000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>7.599999999999966</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.317073170731674</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>55.18000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>7.69999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.761904761904859</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L39" t="n">
         <v>55.19000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>7.899999999999956</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333346</v>
+        <v>-27.27272727272751</v>
       </c>
       <c r="L40" t="n">
         <v>55.16000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>7.899999999999956</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>55.13000000000002</v>
@@ -2370,7 +2392,7 @@
         <v>7.999999999999957</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571436</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L42" t="n">
         <v>55.12000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>8.899999999999956</v>
       </c>
       <c r="K43" t="n">
-        <v>23.52941176470596</v>
+        <v>44.44444444444471</v>
       </c>
       <c r="L43" t="n">
         <v>55.20000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>9.399999999999956</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.857142857142915</v>
+        <v>18.18181818181827</v>
       </c>
       <c r="L44" t="n">
         <v>55.23</v>
@@ -2523,7 +2545,7 @@
         <v>9.499999999999957</v>
       </c>
       <c r="K45" t="n">
-        <v>-2.857142857142915</v>
+        <v>13.04347826086954</v>
       </c>
       <c r="L45" t="n">
         <v>55.26000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>9.599999999999952</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.857142857142718</v>
+        <v>-4.761904761904536</v>
       </c>
       <c r="L46" t="n">
         <v>55.28000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>9.699999999999953</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.555555555555479</v>
+        <v>-4.761904761904859</v>
       </c>
       <c r="L47" t="n">
         <v>55.26000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>9.799999999999955</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.2857142857144</v>
+        <v>-14.28571428571419</v>
       </c>
       <c r="L48" t="n">
         <v>55.24000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>9.899999999999956</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.030303030303096</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>55.22000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>9.899999999999956</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.67741935483868</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>55.22000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>9.899999999999956</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.67741935483868</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L51" t="n">
         <v>55.22000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>9.999999999999957</v>
       </c>
       <c r="K52" t="n">
-        <v>3.448275862069033</v>
+        <v>-63.63636363636317</v>
       </c>
       <c r="L52" t="n">
         <v>55.24000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>10.09999999999996</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L53" t="n">
         <v>55.16000000000003</v>
@@ -2982,7 +3004,7 @@
         <v>10.09999999999996</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L54" t="n">
         <v>55.13000000000003</v>
@@ -3033,7 +3055,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K55" t="n">
-        <v>28.20512820512835</v>
+        <v>59.99999999999962</v>
       </c>
       <c r="L55" t="n">
         <v>55.21000000000004</v>
@@ -3084,7 +3106,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K56" t="n">
-        <v>28.20512820512835</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L56" t="n">
         <v>55.30000000000003</v>
@@ -3135,7 +3157,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>22.22222222222242</v>
+        <v>84.61538461538444</v>
       </c>
       <c r="L57" t="n">
         <v>55.40000000000003</v>
@@ -3186,7 +3208,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>25.71428571428573</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L58" t="n">
         <v>55.51000000000003</v>
@@ -3237,7 +3259,7 @@
         <v>11.09999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>23.52941176470602</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L59" t="n">
         <v>55.61000000000003</v>
@@ -3288,7 +3310,7 @@
         <v>11.79999999999996</v>
       </c>
       <c r="K60" t="n">
-        <v>7.692307692307608</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L60" t="n">
         <v>55.64000000000003</v>
@@ -3339,7 +3361,7 @@
         <v>11.89999999999996</v>
       </c>
       <c r="K61" t="n">
-        <v>9.999999999999947</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L61" t="n">
         <v>55.68000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>11.99999999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>9.999999999999947</v>
+        <v>15.78947368421033</v>
       </c>
       <c r="L62" t="n">
         <v>55.70000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>12.49999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L63" t="n">
         <v>55.78000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>12.59999999999997</v>
       </c>
       <c r="K64" t="n">
-        <v>18.74999999999999</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L64" t="n">
         <v>55.87000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>12.69999999999997</v>
       </c>
       <c r="K65" t="n">
-        <v>25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>55.87000000000002</v>
@@ -3594,7 +3616,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K66" t="n">
-        <v>24.99999999999978</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L66" t="n">
         <v>55.86000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>12.79999999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>29.03225806451594</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L67" t="n">
         <v>55.85000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>12.89999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>35.4838709677418</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>55.85000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>13.09999999999997</v>
       </c>
       <c r="K69" t="n">
-        <v>37.49999999999975</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L69" t="n">
         <v>55.87</v>
@@ -3798,7 +3820,7 @@
         <v>13.29999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>41.1764705882351</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L70" t="n">
         <v>55.98</v>
@@ -3849,7 +3871,7 @@
         <v>13.39999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>42.85714285714268</v>
+        <v>85.71428571428557</v>
       </c>
       <c r="L71" t="n">
         <v>56.09000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>13.49999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>42.85714285714268</v>
+        <v>79.99999999999986</v>
       </c>
       <c r="L72" t="n">
         <v>56.22000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>13.69999999999997</v>
       </c>
       <c r="K73" t="n">
-        <v>49.9999999999998</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L73" t="n">
         <v>56.32000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>14.19999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>31.7073170731706</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L74" t="n">
         <v>56.36000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>14.49999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L75" t="n">
         <v>56.36000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>14.69999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.555555555555621</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L76" t="n">
         <v>56.35000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-12.8205128205128</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L77" t="n">
         <v>56.31000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-12.8205128205128</v>
+        <v>-36.8421052631577</v>
       </c>
       <c r="L78" t="n">
         <v>56.26000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>-12.8205128205128</v>
+        <v>-52.94117647058828</v>
       </c>
       <c r="L79" t="n">
         <v>56.19000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>6.250000000000083</v>
+        <v>-62.50000000000022</v>
       </c>
       <c r="L80" t="n">
         <v>56.10000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>14.99999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>3.225806451612947</v>
+        <v>-73.33333333333377</v>
       </c>
       <c r="L81" t="n">
         <v>56.00000000000002</v>
@@ -4410,7 +4432,7 @@
         <v>15.09999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>9.677419354838843</v>
+        <v>-85.7142857142855</v>
       </c>
       <c r="L82" t="n">
         <v>55.90000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>15.39999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-17.24137931034479</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L83" t="n">
         <v>55.75000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>15.69999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>-29.03225806451607</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L84" t="n">
         <v>55.62000000000003</v>
@@ -4563,7 +4585,7 @@
         <v>15.79999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>-35.48387096774196</v>
+        <v>-81.81818181818159</v>
       </c>
       <c r="L85" t="n">
         <v>55.51000000000003</v>
@@ -4614,7 +4636,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-35.48387096774196</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L86" t="n">
         <v>55.41000000000003</v>
@@ -4665,7 +4687,7 @@
         <v>15.89999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>-35.48387096774196</v>
+        <v>-77.7777777777776</v>
       </c>
       <c r="L87" t="n">
         <v>55.34000000000002</v>
@@ -4716,7 +4738,7 @@
         <v>15.99999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>-41.93548387096786</v>
+        <v>-79.99999999999986</v>
       </c>
       <c r="L88" t="n">
         <v>55.26000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>-46.66666666666651</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L89" t="n">
         <v>55.19000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>-57.1428571428571</v>
+        <v>-63.6363636363634</v>
       </c>
       <c r="L90" t="n">
         <v>55.12</v>
@@ -4869,7 +4891,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K91" t="n">
-        <v>-65.51724137931033</v>
+        <v>-83.33333333333314</v>
       </c>
       <c r="L91" t="n">
         <v>55.03000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>-71.4285714285715</v>
+        <v>-77.77777777777743</v>
       </c>
       <c r="L92" t="n">
         <v>54.93000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-77.77777777777796</v>
+        <v>-42.85714285714373</v>
       </c>
       <c r="L93" t="n">
         <v>54.87</v>
@@ -5022,7 +5044,7 @@
         <v>16.39999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>-72.72727272727293</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L94" t="n">
         <v>54.84</v>
@@ -5073,7 +5095,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>-71.42857142857162</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L95" t="n">
         <v>54.8</v>
@@ -5124,7 +5146,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>-68.4210526315791</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L96" t="n">
         <v>54.77</v>
@@ -5175,7 +5197,7 @@
         <v>16.59999999999996</v>
       </c>
       <c r="K97" t="n">
-        <v>-62.50000000000022</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>54.74000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>16.79999999999995</v>
       </c>
       <c r="K98" t="n">
-        <v>-44.44444444444493</v>
+        <v>-14.28571428571487</v>
       </c>
       <c r="L98" t="n">
         <v>54.74000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>17.29999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>-13.04347826086981</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L99" t="n">
         <v>54.78000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>17.99999999999995</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333349</v>
+        <v>-5.882352941176618</v>
       </c>
       <c r="L100" t="n">
         <v>54.75000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>19.39999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>9.090909090909092</v>
+        <v>41.93548387096792</v>
       </c>
       <c r="L101" t="n">
         <v>54.88000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>20.39999999999995</v>
       </c>
       <c r="K102" t="n">
-        <v>24.52830188679248</v>
+        <v>55.00000000000027</v>
       </c>
       <c r="L102" t="n">
         <v>55.11</v>
@@ -5481,7 +5503,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>13.79310344827599</v>
+        <v>29.16666666666689</v>
       </c>
       <c r="L103" t="n">
         <v>55.25000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>20.0000000000001</v>
+        <v>34.7826086956523</v>
       </c>
       <c r="L104" t="n">
         <v>55.39000000000002</v>
@@ -5583,7 +5605,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>22.22222222222237</v>
+        <v>34.7826086956523</v>
       </c>
       <c r="L105" t="n">
         <v>55.55000000000003</v>
@@ -5634,7 +5656,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>24.52830188679264</v>
+        <v>34.7826086956523</v>
       </c>
       <c r="L106" t="n">
         <v>55.71000000000002</v>
@@ -5685,7 +5707,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>24.52830188679264</v>
+        <v>31.818181818182</v>
       </c>
       <c r="L107" t="n">
         <v>55.87000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>26.92307692307716</v>
+        <v>23.07692307692327</v>
       </c>
       <c r="L108" t="n">
         <v>56.01000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>25.49019607843159</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L109" t="n">
         <v>56.10000000000004</v>
@@ -5838,7 +5860,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>25.49019607843159</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L110" t="n">
         <v>56.26000000000005</v>
@@ -5889,7 +5911,7 @@
         <v>21.19999999999995</v>
       </c>
       <c r="K111" t="n">
-        <v>30.61224489795932</v>
+        <v>-100</v>
       </c>
       <c r="L111" t="n">
         <v>56.28000000000005</v>
@@ -5939,9 +5961,7 @@
       <c r="J112" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K112" t="n">
-        <v>30.61224489795932</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -5990,9 +6010,7 @@
       <c r="J113" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K113" t="n">
-        <v>29.16666666666689</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6041,9 +6059,7 @@
       <c r="J114" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K114" t="n">
-        <v>29.16666666666689</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6092,9 +6108,7 @@
       <c r="J115" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K115" t="n">
-        <v>34.7826086956523</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6143,9 +6157,7 @@
       <c r="J116" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K116" t="n">
-        <v>34.7826086956523</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6194,9 +6206,7 @@
       <c r="J117" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K117" t="n">
-        <v>34.7826086956523</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6245,9 +6255,7 @@
       <c r="J118" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K118" t="n">
-        <v>31.818181818182</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6296,9 +6304,7 @@
       <c r="J119" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K119" t="n">
-        <v>23.07692307692327</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>56.20000000000006</v>
       </c>
@@ -6347,9 +6353,7 @@
       <c r="J120" t="n">
         <v>21.19999999999995</v>
       </c>
-      <c r="K120" t="n">
-        <v>50.00000000000011</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>56.20000000000006</v>
       </c>

--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>fluc_close</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +438,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="D2" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="F2" t="n">
-        <v>8954.009099999999</v>
+        <v>10504.3324</v>
       </c>
       <c r="G2" t="n">
-        <v>55.6466666666666</v>
+        <v>56.14000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>55.62999999999993</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,25 +476,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="C3" t="n">
         <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="E3" t="n">
         <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>1821.317</v>
+        <v>8954.009099999999</v>
       </c>
       <c r="G3" t="n">
-        <v>55.66499999999994</v>
+        <v>56.18666666666668</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>55.6466666666666</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -531,12 +505,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,13 +526,13 @@
         <v>56</v>
       </c>
       <c r="F4" t="n">
-        <v>9760.6603</v>
+        <v>1821.317</v>
       </c>
       <c r="G4" t="n">
-        <v>55.6866666666666</v>
+        <v>56.19333333333335</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>55.66499999999994</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -574,12 +543,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,13 +564,13 @@
         <v>56</v>
       </c>
       <c r="F5" t="n">
-        <v>7380.2754</v>
+        <v>9760.6603</v>
       </c>
       <c r="G5" t="n">
-        <v>55.70833333333327</v>
+        <v>56.23333333333335</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>55.6866666666666</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -617,12 +581,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +590,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>9227.3069</v>
+        <v>7380.2754</v>
       </c>
       <c r="G6" t="n">
-        <v>55.7216666666666</v>
+        <v>56.27333333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>55.70833333333327</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3999999999999986</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +628,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="C7" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="D7" t="n">
         <v>55.9</v>
       </c>
       <c r="E7" t="n">
-        <v>55.9</v>
+        <v>55.6</v>
       </c>
       <c r="F7" t="n">
-        <v>4572.192</v>
+        <v>9227.3069</v>
       </c>
       <c r="G7" t="n">
-        <v>55.73999999999993</v>
+        <v>56.28000000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>55.7216666666666</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6999999999999957</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,29 +678,24 @@
         <v>55.9</v>
       </c>
       <c r="F8" t="n">
-        <v>15428.8634</v>
+        <v>4572.192</v>
       </c>
       <c r="G8" t="n">
-        <v>55.75833333333326</v>
+        <v>56.22666666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>55.73999999999993</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6999999999999957</v>
+        <v>0</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +704,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56.4</v>
+        <v>55.9</v>
       </c>
       <c r="C9" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4</v>
+        <v>55.9</v>
       </c>
       <c r="E9" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="F9" t="n">
-        <v>17288</v>
+        <v>15428.8634</v>
       </c>
       <c r="G9" t="n">
-        <v>55.74999999999993</v>
+        <v>56.21333333333335</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.75833333333326</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999999999929</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56.3</v>
+        <v>56.4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="D10" t="n">
         <v>56.4</v>
@@ -815,29 +754,24 @@
         <v>55.5</v>
       </c>
       <c r="F10" t="n">
-        <v>34132.0795</v>
+        <v>17288</v>
       </c>
       <c r="G10" t="n">
-        <v>55.77333333333327</v>
+        <v>56.14000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>55.74999999999993</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.699999999999989</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +780,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="C11" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="D11" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="E11" t="n">
-        <v>55.8</v>
+        <v>55.5</v>
       </c>
       <c r="F11" t="n">
-        <v>3852</v>
+        <v>34132.0795</v>
       </c>
       <c r="G11" t="n">
-        <v>55.78499999999994</v>
+        <v>56.11333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.77333333333327</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.199999999999989</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>55.91</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,42 +821,33 @@
         <v>55.8</v>
       </c>
       <c r="C12" t="n">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2</v>
+        <v>55.8</v>
       </c>
       <c r="E12" t="n">
         <v>55.8</v>
       </c>
       <c r="F12" t="n">
-        <v>843.14095373</v>
+        <v>3852</v>
       </c>
       <c r="G12" t="n">
-        <v>55.80333333333327</v>
+        <v>56.04666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>55.78499999999994</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.692307692307819</v>
-      </c>
-      <c r="L12" t="n">
-        <v>55.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -941,42 +859,33 @@
         <v>55.8</v>
       </c>
       <c r="C13" t="n">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
       <c r="D13" t="n">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
       <c r="E13" t="n">
         <v>55.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1695.2818</v>
+        <v>843.14095373</v>
       </c>
       <c r="G13" t="n">
-        <v>55.81999999999994</v>
+        <v>56.04666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.80333333333327</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-6.666666666666761</v>
-      </c>
-      <c r="L13" t="n">
-        <v>55.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +894,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="C14" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="D14" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="E14" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="F14" t="n">
-        <v>427.8462</v>
+        <v>1695.2818</v>
       </c>
       <c r="G14" t="n">
-        <v>55.83833333333327</v>
+        <v>56.03333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>55.81999999999994</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-9.677419354838635</v>
-      </c>
-      <c r="L14" t="n">
-        <v>55.88000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +932,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="C15" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="D15" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="E15" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="F15" t="n">
-        <v>26953.3213</v>
+        <v>427.8462</v>
       </c>
       <c r="G15" t="n">
-        <v>55.85833333333327</v>
+        <v>55.94666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>55.83833333333327</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.199999999999989</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.142857142857016</v>
-      </c>
-      <c r="L15" t="n">
-        <v>55.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,42 +973,33 @@
         <v>55.8</v>
       </c>
       <c r="C16" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="D16" t="n">
         <v>55.8</v>
       </c>
       <c r="E16" t="n">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="F16" t="n">
-        <v>26077.4642</v>
+        <v>26953.3213</v>
       </c>
       <c r="G16" t="n">
-        <v>55.8766666666666</v>
+        <v>55.89333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>55.85833333333327</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.299999999999983</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-7.692307692307566</v>
-      </c>
-      <c r="L16" t="n">
-        <v>55.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1008,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C17" t="n">
         <v>55.7</v>
       </c>
-      <c r="C17" t="n">
-        <v>55.5</v>
-      </c>
       <c r="D17" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E17" t="n">
         <v>55.7</v>
       </c>
-      <c r="E17" t="n">
-        <v>55.5</v>
-      </c>
       <c r="F17" t="n">
-        <v>11751</v>
+        <v>26077.4642</v>
       </c>
       <c r="G17" t="n">
+        <v>55.88666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>55.8766666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.499999999999986</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L17" t="n">
-        <v>55.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1046,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="C18" t="n">
         <v>55.5</v>
       </c>
       <c r="D18" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="E18" t="n">
         <v>55.5</v>
       </c>
       <c r="F18" t="n">
-        <v>592</v>
+        <v>11751</v>
       </c>
       <c r="G18" t="n">
-        <v>55.87499999999994</v>
+        <v>55.85333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>55.8766666666666</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.499999999999986</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-4.000000000000068</v>
-      </c>
-      <c r="L18" t="n">
-        <v>55.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,33 +1096,24 @@
         <v>55.5</v>
       </c>
       <c r="F19" t="n">
-        <v>9456.0978</v>
+        <v>592</v>
       </c>
       <c r="G19" t="n">
-        <v>55.8666666666666</v>
+        <v>55.82000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.87499999999994</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.499999999999986</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-44.44444444444436</v>
-      </c>
-      <c r="L19" t="n">
-        <v>55.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1122,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C20" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="D20" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="E20" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="F20" t="n">
-        <v>1733.1022</v>
+        <v>9456.0978</v>
       </c>
       <c r="G20" t="n">
-        <v>55.88666666666661</v>
+        <v>55.78666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>55.8666666666666</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.299999999999983</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23.80952380952387</v>
-      </c>
-      <c r="L20" t="n">
-        <v>55.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1160,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="C21" t="n">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="D21" t="n">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="E21" t="n">
-        <v>55.5</v>
+        <v>56.3</v>
       </c>
       <c r="F21" t="n">
-        <v>19800</v>
+        <v>1733.1022</v>
       </c>
       <c r="G21" t="n">
-        <v>55.88499999999995</v>
+        <v>55.80666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>55.88666666666661</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.09999999999998</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-28.00000000000027</v>
-      </c>
-      <c r="L21" t="n">
-        <v>55.75000000000001</v>
-      </c>
-      <c r="M21" t="n">
-        <v>55.83000000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1198,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C22" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D22" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="E22" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F22" t="n">
-        <v>11109.5152</v>
+        <v>19800</v>
       </c>
       <c r="G22" t="n">
-        <v>55.88999999999995</v>
+        <v>55.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>55.88499999999995</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.199999999999982</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-18.18181818181827</v>
-      </c>
-      <c r="L22" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="M22" t="n">
-        <v>55.80000000000001</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1236,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C23" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D23" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E23" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F23" t="n">
-        <v>5101.9999</v>
+        <v>11109.5152</v>
       </c>
       <c r="G23" t="n">
-        <v>55.88166666666662</v>
+        <v>55.76666666666667</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>55.88999999999995</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.499999999999979</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-25.00000000000022</v>
-      </c>
-      <c r="L23" t="n">
-        <v>55.60000000000001</v>
-      </c>
-      <c r="M23" t="n">
-        <v>55.75500000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1274,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="C24" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D24" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="E24" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="F24" t="n">
-        <v>6326.8076</v>
+        <v>5101.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>55.88833333333329</v>
+        <v>55.71333333333334</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>55.88166666666662</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.899999999999977</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-11.11111111111105</v>
-      </c>
-      <c r="L24" t="n">
-        <v>55.58000000000001</v>
-      </c>
-      <c r="M24" t="n">
-        <v>55.73</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1312,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C25" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D25" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E25" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="F25" t="n">
-        <v>5500</v>
+        <v>6326.8076</v>
       </c>
       <c r="G25" t="n">
-        <v>55.89333333333329</v>
+        <v>55.70666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.88833333333329</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.999999999999979</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-11.11111111111129</v>
-      </c>
-      <c r="L25" t="n">
-        <v>55.54000000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>55.70000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1350,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C26" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D26" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E26" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="G26" t="n">
-        <v>55.89666666666663</v>
+        <v>55.64666666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>55.89333333333329</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.09999999999998</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L26" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>55.68500000000002</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,35 +1400,24 @@
         <v>55.3</v>
       </c>
       <c r="F27" t="n">
-        <v>2059.305</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="n">
-        <v>55.89999999999996</v>
+        <v>55.61333333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>55.89666666666663</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.09999999999998</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-7.692307692307819</v>
-      </c>
-      <c r="L27" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="M27" t="n">
-        <v>55.65500000000001</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1426,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C28" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="D28" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E28" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F28" t="n">
-        <v>6329.5988</v>
+        <v>2059.305</v>
       </c>
       <c r="G28" t="n">
-        <v>55.8983333333333</v>
+        <v>55.55333333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>55.89999999999996</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.299999999999983</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>55.48</v>
-      </c>
-      <c r="M28" t="n">
-        <v>55.63500000000001</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1464,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C29" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D29" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="E29" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F29" t="n">
-        <v>5890.6281</v>
+        <v>6329.5988</v>
       </c>
       <c r="G29" t="n">
-        <v>55.89999999999996</v>
+        <v>55.53333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>55.8983333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.59999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-47.82608695652155</v>
-      </c>
-      <c r="L29" t="n">
-        <v>55.45</v>
-      </c>
-      <c r="M29" t="n">
-        <v>55.61500000000001</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,44 +1505,33 @@
         <v>55.4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="D30" t="n">
         <v>55.4</v>
       </c>
       <c r="E30" t="n">
-        <v>55.4</v>
+        <v>55.2</v>
       </c>
       <c r="F30" t="n">
-        <v>997.5</v>
+        <v>5890.6281</v>
       </c>
       <c r="G30" t="n">
-        <v>55.89499999999997</v>
+        <v>55.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>55.89999999999996</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.799999999999976</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-5.882352941176569</v>
-      </c>
-      <c r="L30" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>55.57000000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,37 +1552,24 @@
         <v>55.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>997.5</v>
       </c>
       <c r="G31" t="n">
-        <v>55.88666666666663</v>
+        <v>55.47333333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.89499999999997</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.799999999999976</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>55.35</v>
-      </c>
-      <c r="M31" t="n">
-        <v>55.55000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>55.67000000000001</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1578,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C32" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D32" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E32" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F32" t="n">
-        <v>9474.314200000001</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>55.86666666666663</v>
+        <v>55.45333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>55.88666666666663</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.099999999999973</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>55.32000000000001</v>
-      </c>
-      <c r="M32" t="n">
-        <v>55.49500000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>55.64000000000001</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1616,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="C33" t="n">
         <v>55.1</v>
       </c>
       <c r="D33" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="E33" t="n">
         <v>55.1</v>
       </c>
       <c r="F33" t="n">
-        <v>58436.3774</v>
+        <v>9474.314200000001</v>
       </c>
       <c r="G33" t="n">
-        <v>55.83999999999996</v>
+        <v>55.42666666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>55.86666666666663</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.099999999999973</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>55.32000000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>55.46000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>55.61000000000001</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,37 +1666,24 @@
         <v>55.1</v>
       </c>
       <c r="F34" t="n">
-        <v>32705.9846</v>
+        <v>58436.3774</v>
       </c>
       <c r="G34" t="n">
-        <v>55.80999999999996</v>
+        <v>55.4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>55.83999999999996</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7.099999999999973</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L34" t="n">
-        <v>55.28000000000001</v>
-      </c>
-      <c r="M34" t="n">
-        <v>55.43000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>55.58000000000001</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1692,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C35" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D35" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E35" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F35" t="n">
-        <v>31739.2965</v>
+        <v>32705.9846</v>
       </c>
       <c r="G35" t="n">
-        <v>55.79166666666663</v>
+        <v>55.37333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>55.80999999999996</v>
       </c>
       <c r="I35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.199999999999974</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L35" t="n">
-        <v>55.24000000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>55.39000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>55.54666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,37 +1742,24 @@
         <v>55</v>
       </c>
       <c r="F36" t="n">
-        <v>14570.426</v>
+        <v>31739.2965</v>
       </c>
       <c r="G36" t="n">
-        <v>55.7683333333333</v>
+        <v>55.28666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>55.79166666666663</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.199999999999974</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-27.27272727272715</v>
-      </c>
-      <c r="L36" t="n">
-        <v>55.21000000000002</v>
-      </c>
-      <c r="M36" t="n">
-        <v>55.355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>55.52666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1768,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D37" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E37" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F37" t="n">
-        <v>829.49</v>
+        <v>14570.426</v>
       </c>
       <c r="G37" t="n">
-        <v>55.75999999999996</v>
+        <v>55.25333333333334</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>55.7683333333333</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.499999999999972</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-16.66666666666706</v>
-      </c>
-      <c r="L37" t="n">
-        <v>55.21000000000002</v>
-      </c>
-      <c r="M37" t="n">
-        <v>55.34500000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>55.50666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1806,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C38" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D38" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E38" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F38" t="n">
-        <v>1043.5079</v>
+        <v>829.49</v>
       </c>
       <c r="G38" t="n">
-        <v>55.73666666666663</v>
+        <v>55.24666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>55.75999999999996</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.599999999999966</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>55.18000000000002</v>
-      </c>
-      <c r="M38" t="n">
-        <v>55.33000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>55.48333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1844,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="C39" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="D39" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="E39" t="n">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="F39" t="n">
-        <v>503.9517</v>
+        <v>1043.5079</v>
       </c>
       <c r="G39" t="n">
-        <v>55.72833333333329</v>
+        <v>55.25333333333334</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>55.73666666666663</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.69999999999996</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-11.11111111111146</v>
-      </c>
-      <c r="L39" t="n">
-        <v>55.19000000000001</v>
-      </c>
-      <c r="M39" t="n">
-        <v>55.32000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>55.47333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1882,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="D40" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E40" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8756.3572</v>
+        <v>503.9517</v>
       </c>
       <c r="G40" t="n">
-        <v>55.71999999999996</v>
+        <v>55.24</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>55.72833333333329</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7.899999999999956</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-27.27272727272751</v>
-      </c>
-      <c r="L40" t="n">
-        <v>55.16000000000001</v>
-      </c>
-      <c r="M40" t="n">
-        <v>55.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>55.43333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1920,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="C41" t="n">
         <v>55.1</v>
       </c>
       <c r="D41" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E41" t="n">
         <v>55.1</v>
       </c>
       <c r="F41" t="n">
-        <v>2186.0536</v>
+        <v>8756.3572</v>
       </c>
       <c r="G41" t="n">
-        <v>55.71166666666662</v>
+        <v>55.22000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>55.71999999999996</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7.899999999999956</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>55.13000000000002</v>
-      </c>
-      <c r="M41" t="n">
-        <v>55.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1958,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C42" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E42" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F42" t="n">
-        <v>7638.938</v>
+        <v>2186.0536</v>
       </c>
       <c r="G42" t="n">
-        <v>55.70166666666663</v>
+        <v>55.20666666666668</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>55.71166666666662</v>
       </c>
       <c r="I42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.999999999999957</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-11.11111111111146</v>
-      </c>
-      <c r="L42" t="n">
-        <v>55.12000000000002</v>
-      </c>
-      <c r="M42" t="n">
-        <v>55.21999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>55.37</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1996,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55.8</v>
+        <v>55</v>
       </c>
       <c r="C43" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="D43" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="E43" t="n">
-        <v>55.8</v>
+        <v>55</v>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>7638.938</v>
       </c>
       <c r="G43" t="n">
-        <v>55.70666666666663</v>
+        <v>55.18666666666668</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>55.70166666666663</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>8.899999999999956</v>
-      </c>
-      <c r="K43" t="n">
-        <v>44.44444444444471</v>
-      </c>
-      <c r="L43" t="n">
-        <v>55.20000000000001</v>
-      </c>
-      <c r="M43" t="n">
-        <v>55.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>55.37333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2034,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C44" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="D44" t="n">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="E44" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="n">
-        <v>55.70833333333329</v>
+        <v>55.21333333333335</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>55.70666666666663</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.399999999999956</v>
-      </c>
-      <c r="K44" t="n">
-        <v>18.18181818181827</v>
-      </c>
-      <c r="L44" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="M44" t="n">
-        <v>55.25500000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>55.36333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +2072,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C45" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D45" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="E45" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="F45" t="n">
-        <v>12331.2752</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>55.68999999999996</v>
+        <v>55.22666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>55.70833333333329</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.499999999999957</v>
-      </c>
-      <c r="K45" t="n">
-        <v>13.04347826086954</v>
-      </c>
-      <c r="L45" t="n">
-        <v>55.26000000000001</v>
-      </c>
-      <c r="M45" t="n">
-        <v>55.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>55.34666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2110,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C46" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D46" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E46" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>12331.2752</v>
       </c>
       <c r="G46" t="n">
-        <v>55.67166666666662</v>
+        <v>55.22000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>55.68999999999996</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>9.599999999999952</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-4.761904761904536</v>
-      </c>
-      <c r="L46" t="n">
-        <v>55.28000000000001</v>
-      </c>
-      <c r="M46" t="n">
-        <v>55.245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>55.33000000000001</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2623,46 +2151,33 @@
         <v>55.2</v>
       </c>
       <c r="C47" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D47" t="n">
         <v>55.2</v>
       </c>
       <c r="E47" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="F47" t="n">
-        <v>16056.1506</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>55.66833333333329</v>
+        <v>55.20666666666668</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>55.67166666666662</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>9.699999999999953</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-4.761904761904859</v>
-      </c>
-      <c r="L47" t="n">
-        <v>55.26000000000001</v>
-      </c>
-      <c r="M47" t="n">
-        <v>55.235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>55.31666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2186,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="E48" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F48" t="n">
-        <v>264.8929</v>
+        <v>16056.1506</v>
       </c>
       <c r="G48" t="n">
-        <v>55.65333333333329</v>
+        <v>55.20666666666668</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>55.66833333333329</v>
       </c>
       <c r="I48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>9.799999999999955</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-14.28571428571419</v>
-      </c>
-      <c r="L48" t="n">
-        <v>55.24000000000001</v>
-      </c>
-      <c r="M48" t="n">
-        <v>55.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2224,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E49" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>264.8929</v>
       </c>
       <c r="G49" t="n">
-        <v>55.64833333333328</v>
+        <v>55.20000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>55.65333333333329</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>9.899999999999956</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>55.22000000000001</v>
-      </c>
-      <c r="M49" t="n">
-        <v>55.205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>55.28666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2785,37 +2274,24 @@
         <v>55.1</v>
       </c>
       <c r="F50" t="n">
-        <v>595.9016</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>55.64333333333328</v>
+        <v>55.20000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>55.64833333333328</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>9.899999999999956</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>55.22000000000001</v>
-      </c>
-      <c r="M50" t="n">
-        <v>55.18999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>55.24666666666666</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,37 +2312,24 @@
         <v>55.1</v>
       </c>
       <c r="F51" t="n">
-        <v>29.1152</v>
+        <v>595.9016</v>
       </c>
       <c r="G51" t="n">
-        <v>55.63666666666661</v>
+        <v>55.20666666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>55.64333333333328</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9.899999999999956</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5.263157894736921</v>
-      </c>
-      <c r="L51" t="n">
-        <v>55.22000000000001</v>
-      </c>
-      <c r="M51" t="n">
-        <v>55.17499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>55.23333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2338,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C52" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D52" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E52" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F52" t="n">
-        <v>4015.4965</v>
+        <v>29.1152</v>
       </c>
       <c r="G52" t="n">
-        <v>55.61166666666661</v>
+        <v>55.21333333333335</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>55.63666666666661</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.7999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>9.999999999999957</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-63.63636363636317</v>
-      </c>
-      <c r="L52" t="n">
-        <v>55.24000000000002</v>
-      </c>
-      <c r="M52" t="n">
-        <v>55.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>55.22666666666666</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2929,46 +2379,33 @@
         <v>55.2</v>
       </c>
       <c r="C53" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D53" t="n">
         <v>55.2</v>
       </c>
       <c r="E53" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="F53" t="n">
-        <v>11288.914</v>
+        <v>4015.4965</v>
       </c>
       <c r="G53" t="n">
-        <v>55.59499999999994</v>
+        <v>55.20666666666668</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>55.61166666666661</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>10.09999999999996</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-42.85714285714228</v>
-      </c>
-      <c r="L53" t="n">
-        <v>55.16000000000003</v>
-      </c>
-      <c r="M53" t="n">
-        <v>55.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>55.22666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2414,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="C54" t="n">
         <v>55.1</v>
       </c>
       <c r="D54" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="E54" t="n">
         <v>55.1</v>
       </c>
       <c r="F54" t="n">
-        <v>17976.184</v>
+        <v>11288.914</v>
       </c>
       <c r="G54" t="n">
-        <v>55.56833333333328</v>
+        <v>55.20000000000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>55.59499999999994</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>10.09999999999996</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-33.33333333333254</v>
-      </c>
-      <c r="L54" t="n">
-        <v>55.13000000000003</v>
-      </c>
-      <c r="M54" t="n">
-        <v>55.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>55.21333333333332</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2452,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="C55" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="D55" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="E55" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F55" t="n">
-        <v>1400</v>
+        <v>17976.184</v>
       </c>
       <c r="G55" t="n">
-        <v>55.55833333333328</v>
+        <v>55.18666666666669</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>55.56833333333328</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>11.09999999999996</v>
-      </c>
-      <c r="K55" t="n">
-        <v>59.99999999999962</v>
-      </c>
-      <c r="L55" t="n">
-        <v>55.21000000000004</v>
-      </c>
-      <c r="M55" t="n">
-        <v>55.23499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>55.23666666666665</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,7 +2490,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C56" t="n">
         <v>56.1</v>
@@ -3088,40 +2499,27 @@
         <v>56.1</v>
       </c>
       <c r="E56" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="F56" t="n">
-        <v>5952.0791</v>
+        <v>1400</v>
       </c>
       <c r="G56" t="n">
-        <v>55.54666666666661</v>
+        <v>55.25333333333335</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>55.55833333333328</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>11.09999999999996</v>
-      </c>
-      <c r="K56" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L56" t="n">
-        <v>55.30000000000003</v>
-      </c>
-      <c r="M56" t="n">
-        <v>55.28999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>55.26333333333331</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,37 +2540,24 @@
         <v>56.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1696.9999</v>
+        <v>5952.0791</v>
       </c>
       <c r="G57" t="n">
-        <v>55.54499999999994</v>
+        <v>55.32000000000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>55.54666666666661</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>11.09999999999996</v>
-      </c>
-      <c r="K57" t="n">
-        <v>84.61538461538444</v>
-      </c>
-      <c r="L57" t="n">
-        <v>55.40000000000003</v>
-      </c>
-      <c r="M57" t="n">
-        <v>55.32999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>55.28999999999998</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3193,37 +2578,24 @@
         <v>56.1</v>
       </c>
       <c r="F58" t="n">
-        <v>8909.1312</v>
+        <v>1696.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>55.54666666666661</v>
+        <v>55.39333333333335</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>55.54499999999994</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>11.09999999999996</v>
-      </c>
-      <c r="K58" t="n">
-        <v>83.33333333333314</v>
-      </c>
-      <c r="L58" t="n">
-        <v>55.51000000000003</v>
-      </c>
-      <c r="M58" t="n">
-        <v>55.37499999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="n">
-        <v>55.30999999999997</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,37 +2616,24 @@
         <v>56.1</v>
       </c>
       <c r="F59" t="n">
-        <v>10923.1681</v>
+        <v>8909.1312</v>
       </c>
       <c r="G59" t="n">
-        <v>55.53166666666661</v>
+        <v>55.40666666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>55.54666666666661</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>11.09999999999996</v>
-      </c>
-      <c r="K59" t="n">
-        <v>83.33333333333314</v>
-      </c>
-      <c r="L59" t="n">
-        <v>55.61000000000003</v>
-      </c>
-      <c r="M59" t="n">
-        <v>55.41499999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>55.33999999999997</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2642,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="C60" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="D60" t="n">
-        <v>55.7</v>
+        <v>56.1</v>
       </c>
       <c r="E60" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="F60" t="n">
-        <v>48701.539</v>
+        <v>10923.1681</v>
       </c>
       <c r="G60" t="n">
-        <v>55.51166666666661</v>
+        <v>55.45333333333336</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>55.53166666666661</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>11.79999999999996</v>
-      </c>
-      <c r="K60" t="n">
-        <v>15.78947368421033</v>
-      </c>
-      <c r="L60" t="n">
-        <v>55.64000000000003</v>
-      </c>
-      <c r="M60" t="n">
-        <v>55.42999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>55.33999999999997</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2680,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="C61" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D61" t="n">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="E61" t="n">
         <v>55.4</v>
       </c>
       <c r="F61" t="n">
-        <v>29027.0672</v>
+        <v>48701.539</v>
       </c>
       <c r="G61" t="n">
-        <v>55.50666666666661</v>
+        <v>55.46000000000003</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>55.51166666666661</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>11.89999999999996</v>
-      </c>
-      <c r="K61" t="n">
-        <v>15.78947368421033</v>
-      </c>
-      <c r="L61" t="n">
-        <v>55.68000000000003</v>
-      </c>
-      <c r="M61" t="n">
-        <v>55.44999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="n">
-        <v>55.3433333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2718,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C62" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="D62" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="E62" t="n">
         <v>55.4</v>
       </c>
       <c r="F62" t="n">
-        <v>5918.1336</v>
+        <v>29027.0672</v>
       </c>
       <c r="G62" t="n">
-        <v>55.49666666666661</v>
+        <v>55.48000000000003</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>55.50666666666661</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>11.99999999999996</v>
-      </c>
-      <c r="K62" t="n">
-        <v>15.78947368421033</v>
-      </c>
-      <c r="L62" t="n">
-        <v>55.70000000000002</v>
-      </c>
-      <c r="M62" t="n">
-        <v>55.46999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="n">
-        <v>55.35333333333331</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2756,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="C63" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="D63" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="E63" t="n">
-        <v>55.9</v>
+        <v>55.4</v>
       </c>
       <c r="F63" t="n">
-        <v>1841.2532</v>
+        <v>5918.1336</v>
       </c>
       <c r="G63" t="n">
-        <v>55.49499999999994</v>
+        <v>55.50000000000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>55.49666666666661</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>12.49999999999996</v>
-      </c>
-      <c r="K63" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L63" t="n">
-        <v>55.78000000000002</v>
-      </c>
-      <c r="M63" t="n">
-        <v>55.46999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="n">
-        <v>55.37999999999998</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2794,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="C64" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="D64" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="E64" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="F64" t="n">
-        <v>4241.0328</v>
+        <v>1841.2532</v>
       </c>
       <c r="G64" t="n">
+        <v>55.56000000000002</v>
+      </c>
+      <c r="H64" t="n">
         <v>55.49499999999994</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>12.59999999999997</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-6.66666666666673</v>
-      </c>
-      <c r="L64" t="n">
-        <v>55.87000000000002</v>
-      </c>
-      <c r="M64" t="n">
-        <v>55.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>55.40999999999998</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2832,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="C65" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="D65" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="E65" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>4241.0328</v>
       </c>
       <c r="G65" t="n">
-        <v>55.49666666666661</v>
+        <v>55.62000000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>55.49499999999994</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>12.69999999999997</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>55.87000000000002</v>
-      </c>
-      <c r="M65" t="n">
-        <v>55.53999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
-        <v>55.44666666666664</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,46 +2873,33 @@
         <v>56.1</v>
       </c>
       <c r="C66" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D66" t="n">
         <v>56.1</v>
       </c>
       <c r="E66" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F66" t="n">
-        <v>1396.4997</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>55.50333333333328</v>
+        <v>55.68666666666669</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>55.49666666666661</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>12.79999999999997</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-5.88235294117652</v>
-      </c>
-      <c r="L66" t="n">
-        <v>55.86000000000001</v>
-      </c>
-      <c r="M66" t="n">
-        <v>55.57999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
-        <v>55.47999999999998</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2908,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="C67" t="n">
         <v>56</v>
       </c>
       <c r="D67" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="E67" t="n">
         <v>56</v>
       </c>
       <c r="F67" t="n">
-        <v>37308.8985</v>
+        <v>1396.4997</v>
       </c>
       <c r="G67" t="n">
-        <v>55.50499999999995</v>
+        <v>55.74666666666668</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>55.50333333333328</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>12.79999999999997</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-5.88235294117652</v>
-      </c>
-      <c r="L67" t="n">
-        <v>55.85000000000001</v>
-      </c>
-      <c r="M67" t="n">
-        <v>55.62499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="n">
-        <v>55.50333333333332</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2946,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="C68" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="D68" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="E68" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>37308.8985</v>
       </c>
       <c r="G68" t="n">
-        <v>55.50833333333328</v>
+        <v>55.80000000000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>55.50499999999995</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>12.89999999999997</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>55.85000000000001</v>
-      </c>
-      <c r="M68" t="n">
-        <v>55.67999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>55.53333333333331</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2984,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="C69" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="D69" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="E69" t="n">
-        <v>56.3</v>
+        <v>56.1</v>
       </c>
       <c r="F69" t="n">
-        <v>1553.9989</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="n">
-        <v>55.51999999999995</v>
+        <v>55.86666666666668</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>55.50833333333328</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>13.09999999999997</v>
-      </c>
-      <c r="K69" t="n">
-        <v>69.2307692307689</v>
-      </c>
-      <c r="L69" t="n">
-        <v>55.87</v>
-      </c>
-      <c r="M69" t="n">
-        <v>55.73999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="n">
-        <v>55.56666666666664</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +3022,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="C70" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="D70" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="E70" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
       <c r="F70" t="n">
-        <v>7553.9008</v>
+        <v>1553.9989</v>
       </c>
       <c r="G70" t="n">
-        <v>55.52333333333328</v>
+        <v>55.94666666666668</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>55.51999999999995</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>13.29999999999997</v>
-      </c>
-      <c r="K70" t="n">
-        <v>71.42857142857115</v>
-      </c>
-      <c r="L70" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="M70" t="n">
-        <v>55.80999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="n">
-        <v>55.61333333333332</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +3060,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="C71" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="D71" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="E71" t="n">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="F71" t="n">
-        <v>1793.0211</v>
+        <v>7553.9008</v>
       </c>
       <c r="G71" t="n">
-        <v>55.5366666666666</v>
+        <v>55.97333333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>55.52333333333328</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>13.39999999999997</v>
-      </c>
-      <c r="K71" t="n">
-        <v>85.71428571428557</v>
-      </c>
-      <c r="L71" t="n">
-        <v>56.09000000000001</v>
-      </c>
-      <c r="M71" t="n">
-        <v>55.88499999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="n">
-        <v>55.66333333333331</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3098,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="C72" t="n">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="D72" t="n">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="E72" t="n">
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="F72" t="n">
-        <v>8870.425999999999</v>
+        <v>1793.0211</v>
       </c>
       <c r="G72" t="n">
-        <v>55.54499999999994</v>
+        <v>56.00666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>55.5366666666666</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>13.49999999999997</v>
-      </c>
-      <c r="K72" t="n">
-        <v>79.99999999999986</v>
-      </c>
-      <c r="L72" t="n">
-        <v>56.22000000000001</v>
-      </c>
-      <c r="M72" t="n">
-        <v>55.95999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="n">
-        <v>55.71999999999998</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3136,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="C73" t="n">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
       <c r="D73" t="n">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
       <c r="E73" t="n">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="F73" t="n">
-        <v>24912.3374</v>
+        <v>8870.425999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>55.56333333333327</v>
+        <v>56.04666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>55.54499999999994</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>13.69999999999997</v>
-      </c>
-      <c r="K73" t="n">
-        <v>81.81818181818159</v>
-      </c>
-      <c r="L73" t="n">
-        <v>56.32000000000001</v>
-      </c>
-      <c r="M73" t="n">
-        <v>56.04999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="n">
-        <v>55.75333333333332</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3174,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C74" t="n">
         <v>56.9</v>
       </c>
-      <c r="C74" t="n">
-        <v>56.4</v>
-      </c>
       <c r="D74" t="n">
-        <v>57</v>
+        <v>56.9</v>
       </c>
       <c r="E74" t="n">
-        <v>56.4</v>
+        <v>56.8</v>
       </c>
       <c r="F74" t="n">
-        <v>2284</v>
+        <v>24912.3374</v>
       </c>
       <c r="G74" t="n">
-        <v>55.57499999999994</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>55.56333333333327</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>14.19999999999997</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19.99999999999981</v>
-      </c>
-      <c r="L74" t="n">
-        <v>56.36000000000001</v>
-      </c>
-      <c r="M74" t="n">
-        <v>56.11499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="n">
-        <v>55.78666666666665</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3212,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>56.1</v>
+        <v>56.9</v>
       </c>
       <c r="C75" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="D75" t="n">
-        <v>56.1</v>
+        <v>57</v>
       </c>
       <c r="E75" t="n">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="F75" t="n">
-        <v>158.2702</v>
+        <v>2284</v>
       </c>
       <c r="G75" t="n">
-        <v>55.57999999999993</v>
+        <v>56.12</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>55.57499999999994</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>14.49999999999996</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.882352941176569</v>
-      </c>
-      <c r="L75" t="n">
-        <v>56.36000000000001</v>
-      </c>
-      <c r="M75" t="n">
-        <v>56.11499999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="n">
-        <v>55.81333333333331</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3250,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="C76" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="D76" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="E76" t="n">
-        <v>55.9</v>
+        <v>56.1</v>
       </c>
       <c r="F76" t="n">
-        <v>16637.6234</v>
+        <v>158.2702</v>
       </c>
       <c r="G76" t="n">
-        <v>55.58333333333327</v>
+        <v>56.16666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>55.57999999999993</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>14.69999999999997</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-5.263157894736921</v>
-      </c>
-      <c r="L76" t="n">
-        <v>56.35000000000001</v>
-      </c>
-      <c r="M76" t="n">
-        <v>56.105</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>55.83666666666665</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3288,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C77" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="D77" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="E77" t="n">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="F77" t="n">
-        <v>16637.6236</v>
+        <v>16637.6234</v>
       </c>
       <c r="G77" t="n">
-        <v>55.58499999999994</v>
+        <v>56.19333333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>55.58333333333327</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>14.99999999999996</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-23.80952380952387</v>
-      </c>
-      <c r="L77" t="n">
-        <v>56.31000000000002</v>
-      </c>
-      <c r="M77" t="n">
-        <v>56.08000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="n">
-        <v>55.85333333333332</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3326,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="C78" t="n">
         <v>55.6</v>
       </c>
       <c r="D78" t="n">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="E78" t="n">
         <v>55.6</v>
       </c>
       <c r="F78" t="n">
-        <v>195.4466</v>
+        <v>16637.6236</v>
       </c>
       <c r="G78" t="n">
-        <v>55.5866666666666</v>
+        <v>56.20666666666668</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>55.58499999999994</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>14.99999999999996</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-36.8421052631577</v>
-      </c>
-      <c r="L78" t="n">
-        <v>56.26000000000001</v>
-      </c>
-      <c r="M78" t="n">
-        <v>56.05500000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>55.87333333333331</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,37 +3376,24 @@
         <v>55.6</v>
       </c>
       <c r="F79" t="n">
-        <v>2063.2908</v>
+        <v>195.4466</v>
       </c>
       <c r="G79" t="n">
-        <v>55.58833333333327</v>
+        <v>56.18666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>55.5866666666666</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>14.99999999999996</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-52.94117647058828</v>
-      </c>
-      <c r="L79" t="n">
-        <v>56.19000000000002</v>
-      </c>
-      <c r="M79" t="n">
-        <v>56.03000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>55.88999999999998</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,37 +3414,24 @@
         <v>55.6</v>
       </c>
       <c r="F80" t="n">
-        <v>311.492</v>
+        <v>2063.2908</v>
       </c>
       <c r="G80" t="n">
-        <v>55.5766666666666</v>
+        <v>56.16000000000001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>55.58833333333327</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>14.99999999999996</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-62.50000000000022</v>
-      </c>
-      <c r="L80" t="n">
-        <v>56.10000000000002</v>
-      </c>
-      <c r="M80" t="n">
-        <v>56.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>55.90666666666664</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,37 +3452,24 @@
         <v>55.6</v>
       </c>
       <c r="F81" t="n">
-        <v>181.8181</v>
+        <v>311.492</v>
       </c>
       <c r="G81" t="n">
-        <v>55.57833333333326</v>
+        <v>56.12666666666668</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>55.5766666666666</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>14.99999999999996</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-73.33333333333377</v>
-      </c>
-      <c r="L81" t="n">
-        <v>56.00000000000002</v>
-      </c>
-      <c r="M81" t="n">
-        <v>56.04499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>55.92333333333331</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3478,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="C82" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="D82" t="n">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="E82" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="F82" t="n">
-        <v>46373.6076</v>
+        <v>181.8181</v>
       </c>
       <c r="G82" t="n">
-        <v>55.58333333333326</v>
+        <v>56.10000000000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>55.57833333333326</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.2999999999999972</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>15.09999999999997</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-85.7142857142855</v>
-      </c>
-      <c r="L82" t="n">
-        <v>55.90000000000002</v>
-      </c>
-      <c r="M82" t="n">
-        <v>56.05999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>55.93999999999998</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3516,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C83" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="D83" t="n">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="E83" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="F83" t="n">
-        <v>2531.084</v>
+        <v>46373.6076</v>
       </c>
       <c r="G83" t="n">
-        <v>55.58833333333326</v>
+        <v>56.08000000000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>55.58333333333326</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.6000000000000014</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>15.39999999999997</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-83.33333333333314</v>
-      </c>
-      <c r="L83" t="n">
-        <v>55.75000000000002</v>
-      </c>
-      <c r="M83" t="n">
-        <v>56.03499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="n">
-        <v>55.94999999999998</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3554,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="E84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F84" t="n">
-        <v>4170</v>
+        <v>2531.084</v>
       </c>
       <c r="G84" t="n">
-        <v>55.58166666666659</v>
+        <v>56.03333333333335</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>55.58833333333326</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.8999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>15.69999999999997</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-83.33333333333314</v>
-      </c>
-      <c r="L84" t="n">
-        <v>55.62000000000003</v>
-      </c>
-      <c r="M84" t="n">
-        <v>55.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="n">
-        <v>55.94999999999998</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3592,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="C85" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="E85" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F85" t="n">
-        <v>80670.6465</v>
+        <v>4170</v>
       </c>
       <c r="G85" t="n">
-        <v>55.57499999999992</v>
+        <v>55.95333333333335</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>55.58166666666659</v>
       </c>
       <c r="I85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>15.79999999999997</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-81.81818181818159</v>
-      </c>
-      <c r="L85" t="n">
-        <v>55.51000000000003</v>
-      </c>
-      <c r="M85" t="n">
-        <v>55.93499999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
-        <v>55.91333333333332</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,46 +3633,33 @@
         <v>55</v>
       </c>
       <c r="C86" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D86" t="n">
         <v>55</v>
       </c>
       <c r="E86" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F86" t="n">
-        <v>6351.0223</v>
+        <v>80670.6465</v>
       </c>
       <c r="G86" t="n">
-        <v>55.56833333333326</v>
+        <v>55.85333333333335</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>55.57499999999992</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>15.89999999999997</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-77.7777777777776</v>
-      </c>
-      <c r="L86" t="n">
-        <v>55.41000000000003</v>
-      </c>
-      <c r="M86" t="n">
-        <v>55.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>55.87333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +3668,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C87" t="n">
         <v>54.9</v>
       </c>
       <c r="D87" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="E87" t="n">
         <v>54.9</v>
       </c>
       <c r="F87" t="n">
-        <v>1855.35</v>
+        <v>6351.0223</v>
       </c>
       <c r="G87" t="n">
-        <v>55.56166666666659</v>
+        <v>55.74000000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>55.56833333333326</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>15.89999999999997</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-77.7777777777776</v>
-      </c>
-      <c r="L87" t="n">
-        <v>55.34000000000002</v>
-      </c>
-      <c r="M87" t="n">
-        <v>55.825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>55.83333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3706,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C88" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D88" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E88" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F88" t="n">
-        <v>251.6483</v>
+        <v>1855.35</v>
       </c>
       <c r="G88" t="n">
-        <v>55.54999999999993</v>
+        <v>55.62000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>55.56166666666659</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>15.99999999999997</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-79.99999999999986</v>
-      </c>
-      <c r="L88" t="n">
-        <v>55.26000000000001</v>
-      </c>
-      <c r="M88" t="n">
-        <v>55.76000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>55.79</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +3744,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C89" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D89" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E89" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F89" t="n">
-        <v>750</v>
+        <v>251.6483</v>
       </c>
       <c r="G89" t="n">
-        <v>55.54499999999993</v>
+        <v>55.48000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>55.54999999999993</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>16.09999999999997</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-63.6363636363634</v>
-      </c>
-      <c r="L89" t="n">
-        <v>55.19000000000001</v>
-      </c>
-      <c r="M89" t="n">
-        <v>55.69000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>55.75000000000001</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4825,37 +3794,24 @@
         <v>54.9</v>
       </c>
       <c r="F90" t="n">
-        <v>1056.733</v>
+        <v>750</v>
       </c>
       <c r="G90" t="n">
-        <v>55.5366666666666</v>
+        <v>55.38000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>55.54499999999993</v>
       </c>
       <c r="I90" t="n">
-        <v>-1.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>16.09999999999997</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-63.6363636363634</v>
-      </c>
-      <c r="L90" t="n">
-        <v>55.12</v>
-      </c>
-      <c r="M90" t="n">
-        <v>55.61000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="n">
-        <v>55.73333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,46 +3823,33 @@
         <v>54.9</v>
       </c>
       <c r="C91" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="D91" t="n">
         <v>54.9</v>
       </c>
       <c r="E91" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="F91" t="n">
-        <v>5692.8917</v>
+        <v>1056.733</v>
       </c>
       <c r="G91" t="n">
-        <v>55.52499999999993</v>
+        <v>55.3</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>55.5366666666666</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>16.29999999999997</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-83.33333333333314</v>
-      </c>
-      <c r="L91" t="n">
-        <v>55.03000000000001</v>
-      </c>
-      <c r="M91" t="n">
-        <v>55.51500000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="n">
-        <v>55.70666666666668</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +3858,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="C92" t="n">
         <v>54.7</v>
       </c>
       <c r="D92" t="n">
-        <v>54.7</v>
+        <v>54.9</v>
       </c>
       <c r="E92" t="n">
         <v>54.7</v>
       </c>
       <c r="F92" t="n">
-        <v>4100</v>
+        <v>5692.8917</v>
       </c>
       <c r="G92" t="n">
-        <v>55.51833333333325</v>
+        <v>55.22000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>55.52499999999993</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>16.29999999999997</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-77.77777777777743</v>
-      </c>
-      <c r="L92" t="n">
-        <v>54.93000000000001</v>
-      </c>
-      <c r="M92" t="n">
-        <v>55.41500000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="n">
-        <v>55.68333333333334</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,49 +3896,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C93" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="D93" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E93" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="F93" t="n">
-        <v>1695.9999</v>
+        <v>4100</v>
       </c>
       <c r="G93" t="n">
-        <v>55.51333333333326</v>
+        <v>55.16000000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>55.51833333333325</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>16.39999999999996</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-42.85714285714373</v>
-      </c>
-      <c r="L93" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="M93" t="n">
-        <v>55.31000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="n">
-        <v>55.64666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5029,37 +3946,28 @@
         <v>54.8</v>
       </c>
       <c r="F94" t="n">
-        <v>2812.5</v>
+        <v>1695.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>55.50833333333326</v>
+        <v>55.10666666666668</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>55.51333333333326</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>16.39999999999996</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333412</v>
+        <v>54.7</v>
       </c>
       <c r="L94" t="n">
-        <v>54.84</v>
-      </c>
-      <c r="M94" t="n">
-        <v>55.23</v>
-      </c>
+        <v>54.7</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>55.60666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,46 +3979,39 @@
         <v>54.8</v>
       </c>
       <c r="C95" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="D95" t="n">
         <v>54.8</v>
       </c>
       <c r="E95" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="F95" t="n">
-        <v>18900</v>
+        <v>2812.5</v>
       </c>
       <c r="G95" t="n">
-        <v>55.50166666666659</v>
+        <v>55.05333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>55.50833333333326</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>16.59999999999996</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-42.85714285714315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="M95" t="n">
-        <v>55.15500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="N95" t="n">
-        <v>55.55666666666666</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,49 +4020,42 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="C96" t="n">
         <v>54.6</v>
       </c>
       <c r="D96" t="n">
-        <v>54.6</v>
+        <v>54.8</v>
       </c>
       <c r="E96" t="n">
         <v>54.6</v>
       </c>
       <c r="F96" t="n">
-        <v>652.9592</v>
+        <v>18900</v>
       </c>
       <c r="G96" t="n">
-        <v>55.49499999999993</v>
+        <v>54.98666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>55.50166666666659</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>16.59999999999996</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-42.85714285714315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>54.77</v>
-      </c>
-      <c r="M96" t="n">
-        <v>55.09</v>
+        <v>54.7</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="N96" t="n">
-        <v>55.51</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5182,37 +4076,32 @@
         <v>54.6</v>
       </c>
       <c r="F97" t="n">
-        <v>8214.3392</v>
+        <v>652.9592</v>
       </c>
       <c r="G97" t="n">
-        <v>55.48333333333326</v>
+        <v>54.92</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>55.49499999999993</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.399999999999999</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>16.59999999999996</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>-33.33333333333333</v>
+        <v>54.6</v>
       </c>
       <c r="L97" t="n">
-        <v>54.74000000000001</v>
-      </c>
-      <c r="M97" t="n">
-        <v>55.04</v>
+        <v>54.7</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N97" t="n">
-        <v>55.46333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,49 +4110,44 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="C98" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="D98" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="E98" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2460.2304</v>
+        <v>8214.3392</v>
       </c>
       <c r="G98" t="n">
-        <v>55.4766666666666</v>
+        <v>54.84666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>55.48333333333326</v>
       </c>
       <c r="I98" t="n">
-        <v>-1.200000000000003</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>16.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>-14.28571428571487</v>
+        <v>54.6</v>
       </c>
       <c r="L98" t="n">
-        <v>54.74000000000001</v>
-      </c>
-      <c r="M98" t="n">
-        <v>55</v>
+        <v>54.7</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N98" t="n">
-        <v>55.41999999999999</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,49 +4156,44 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="C99" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="D99" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="E99" t="n">
-        <v>55.3</v>
+        <v>54.8</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>2460.2304</v>
       </c>
       <c r="G99" t="n">
+        <v>54.80666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>55.4766666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>-0.7000000000000028</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>17.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333373</v>
+        <v>54.6</v>
       </c>
       <c r="L99" t="n">
-        <v>54.78000000000001</v>
-      </c>
-      <c r="M99" t="n">
-        <v>54.985</v>
+        <v>54.7</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N99" t="n">
-        <v>55.38666666666666</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5323,49 +4202,44 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="C100" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="D100" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="E100" t="n">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="F100" t="n">
-        <v>21217.0281</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>55.46833333333326</v>
+        <v>54.82</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>55.4766666666666</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.399999999999999</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>17.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.882352941176618</v>
+        <v>54.8</v>
       </c>
       <c r="L100" t="n">
-        <v>54.75000000000001</v>
-      </c>
-      <c r="M100" t="n">
-        <v>54.935</v>
+        <v>54.7</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N100" t="n">
-        <v>55.32333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5374,49 +4248,44 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D101" t="n">
         <v>55.9</v>
       </c>
-      <c r="C101" t="n">
-        <v>56</v>
-      </c>
-      <c r="D101" t="n">
-        <v>56</v>
-      </c>
       <c r="E101" t="n">
-        <v>55.9</v>
+        <v>54.6</v>
       </c>
       <c r="F101" t="n">
-        <v>10200</v>
+        <v>21217.0281</v>
       </c>
       <c r="G101" t="n">
-        <v>55.48333333333326</v>
+        <v>54.79333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>55.46833333333326</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>19.39999999999995</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>41.93548387096792</v>
+        <v>55.3</v>
       </c>
       <c r="L101" t="n">
-        <v>54.88000000000001</v>
-      </c>
-      <c r="M101" t="n">
-        <v>54.95500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N101" t="n">
-        <v>55.30333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,49 +4294,44 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C102" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D102" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102" t="n">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="F102" t="n">
-        <v>62900.099</v>
+        <v>10200</v>
       </c>
       <c r="G102" t="n">
-        <v>55.5166666666666</v>
+        <v>54.86666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>55.48333333333326</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>20.39999999999995</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>55.00000000000027</v>
+        <v>54.6</v>
       </c>
       <c r="L102" t="n">
-        <v>55.11</v>
-      </c>
-      <c r="M102" t="n">
-        <v>55.02</v>
+        <v>54.7</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N102" t="n">
-        <v>55.31333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5476,49 +4340,42 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="C103" t="n">
-        <v>56.2</v>
+        <v>57</v>
       </c>
       <c r="D103" t="n">
-        <v>56.2</v>
+        <v>57</v>
       </c>
       <c r="E103" t="n">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>62900.099</v>
       </c>
       <c r="G103" t="n">
-        <v>55.5216666666666</v>
+        <v>55.00666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>55.5166666666666</v>
       </c>
       <c r="I103" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K103" t="n">
-        <v>29.16666666666689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>55.25000000000001</v>
-      </c>
-      <c r="M103" t="n">
-        <v>55.06</v>
+        <v>54.7</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N103" t="n">
-        <v>55.28999999999999</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,37 +4396,30 @@
         <v>56.2</v>
       </c>
       <c r="F104" t="n">
-        <v>17345.2434</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>55.53499999999993</v>
+        <v>55.10000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>55.5216666666666</v>
       </c>
       <c r="I104" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K104" t="n">
-        <v>34.7826086956523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>55.39000000000002</v>
-      </c>
-      <c r="M104" t="n">
-        <v>55.11500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N104" t="n">
-        <v>55.28333333333332</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,37 +4440,30 @@
         <v>56.2</v>
       </c>
       <c r="F105" t="n">
-        <v>29949.5061</v>
+        <v>17345.2434</v>
       </c>
       <c r="G105" t="n">
-        <v>55.54999999999992</v>
+        <v>55.18666666666668</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>55.53499999999993</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K105" t="n">
-        <v>34.7826086956523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>55.55000000000003</v>
-      </c>
-      <c r="M105" t="n">
-        <v>55.17500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N105" t="n">
-        <v>55.28666666666666</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5641,37 +4484,30 @@
         <v>56.2</v>
       </c>
       <c r="F106" t="n">
-        <v>6012.6531</v>
+        <v>29949.5061</v>
       </c>
       <c r="G106" t="n">
-        <v>55.56666666666658</v>
+        <v>55.27333333333335</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>55.54999999999992</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K106" t="n">
-        <v>34.7826086956523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>55.71000000000002</v>
-      </c>
-      <c r="M106" t="n">
-        <v>55.24000000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N106" t="n">
-        <v>55.29666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,37 +4528,30 @@
         <v>56.2</v>
       </c>
       <c r="F107" t="n">
-        <v>1485125.3157</v>
+        <v>6012.6531</v>
       </c>
       <c r="G107" t="n">
-        <v>55.58499999999992</v>
+        <v>55.37333333333335</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>55.56666666666658</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K107" t="n">
-        <v>31.818181818182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>55.87000000000003</v>
-      </c>
-      <c r="M107" t="n">
-        <v>55.30500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N107" t="n">
-        <v>55.31666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,37 +4572,30 @@
         <v>56.2</v>
       </c>
       <c r="F108" t="n">
-        <v>1629428.9901</v>
+        <v>1485125.3157</v>
       </c>
       <c r="G108" t="n">
-        <v>55.60499999999991</v>
+        <v>55.47333333333335</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>55.58499999999992</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K108" t="n">
-        <v>23.07692307692327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>56.01000000000003</v>
-      </c>
-      <c r="M108" t="n">
-        <v>55.37500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N108" t="n">
-        <v>55.33666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5794,37 +4616,30 @@
         <v>56.2</v>
       </c>
       <c r="F109" t="n">
-        <v>1659492.2556</v>
+        <v>1629428.9901</v>
       </c>
       <c r="G109" t="n">
-        <v>55.62333333333324</v>
+        <v>55.56666666666669</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>55.60499999999991</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K109" t="n">
-        <v>50.00000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>56.10000000000004</v>
-      </c>
-      <c r="M109" t="n">
-        <v>55.44000000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N109" t="n">
-        <v>55.35666666666668</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,529 +4660,30 @@
         <v>56.2</v>
       </c>
       <c r="F110" t="n">
-        <v>1665504.9087</v>
+        <v>1659492.2556</v>
       </c>
       <c r="G110" t="n">
-        <v>55.64166666666657</v>
+        <v>55.66000000000003</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>55.62333333333324</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K110" t="n">
-        <v>11.11111111111129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>56.26000000000005</v>
-      </c>
-      <c r="M110" t="n">
-        <v>55.50500000000001</v>
+        <v>54.7</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="N110" t="n">
-        <v>55.37666666666668</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1635441.6432</v>
-      </c>
-      <c r="G111" t="n">
-        <v>55.6599999999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J111" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L111" t="n">
-        <v>56.28000000000005</v>
-      </c>
-      <c r="M111" t="n">
-        <v>55.58000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>55.39666666666668</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E112" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1641454.2963</v>
-      </c>
-      <c r="G112" t="n">
-        <v>55.67666666666658</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J112" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M112" t="n">
-        <v>55.65500000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>55.41333333333335</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1646391.5628</v>
-      </c>
-      <c r="G113" t="n">
-        <v>55.69499999999991</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J113" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M113" t="n">
-        <v>55.72500000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>55.44000000000002</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E114" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1272522.0464</v>
-      </c>
-      <c r="G114" t="n">
-        <v>55.71333333333324</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J114" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M114" t="n">
-        <v>55.79500000000002</v>
-      </c>
-      <c r="N114" t="n">
-        <v>55.47666666666669</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3000979.6025</v>
-      </c>
-      <c r="G115" t="n">
-        <v>55.7149999999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J115" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M115" t="n">
-        <v>55.87500000000002</v>
-      </c>
-      <c r="N115" t="n">
-        <v>55.51666666666669</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1804420.7052</v>
-      </c>
-      <c r="G116" t="n">
-        <v>55.71666666666657</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J116" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M116" t="n">
-        <v>55.95500000000003</v>
-      </c>
-      <c r="N116" t="n">
-        <v>55.56000000000002</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E117" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3475137.9688</v>
-      </c>
-      <c r="G117" t="n">
-        <v>55.71833333333323</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J117" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M117" t="n">
-        <v>56.03500000000004</v>
-      </c>
-      <c r="N117" t="n">
-        <v>55.60333333333335</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E118" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2223625.7208</v>
-      </c>
-      <c r="G118" t="n">
-        <v>55.7199999999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J118" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M118" t="n">
-        <v>56.10500000000004</v>
-      </c>
-      <c r="N118" t="n">
-        <v>55.65000000000002</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E119" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1580670.2092</v>
-      </c>
-      <c r="G119" t="n">
-        <v>55.72166666666656</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J119" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M119" t="n">
-        <v>56.15000000000005</v>
-      </c>
-      <c r="N119" t="n">
-        <v>55.69333333333336</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>3050853.0715</v>
-      </c>
-      <c r="G120" t="n">
-        <v>55.73499999999989</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="J120" t="n">
-        <v>21.19999999999995</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>56.20000000000006</v>
-      </c>
-      <c r="M120" t="n">
-        <v>56.23000000000005</v>
-      </c>
-      <c r="N120" t="n">
-        <v>55.73666666666669</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56.6</v>
+        <v>55.9</v>
       </c>
       <c r="C2" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="D2" t="n">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="E2" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="F2" t="n">
-        <v>10504.3324</v>
+        <v>15400</v>
       </c>
       <c r="G2" t="n">
-        <v>56.14000000000001</v>
+        <v>70000.79772374999</v>
       </c>
       <c r="H2" t="n">
-        <v>55.62999999999993</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="D3" t="n">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="F3" t="n">
-        <v>8954.009099999999</v>
+        <v>62990.8509</v>
       </c>
       <c r="G3" t="n">
-        <v>56.18666666666668</v>
+        <v>132991.64862375</v>
       </c>
       <c r="H3" t="n">
-        <v>55.6466666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="F4" t="n">
-        <v>1821.317</v>
+        <v>44736.5506</v>
       </c>
       <c r="G4" t="n">
-        <v>56.19333333333335</v>
+        <v>177728.19922375</v>
       </c>
       <c r="H4" t="n">
-        <v>55.66499999999994</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F5" t="n">
-        <v>9760.6603</v>
+        <v>54237.0773</v>
       </c>
       <c r="G5" t="n">
-        <v>56.23333333333335</v>
+        <v>123491.12192375</v>
       </c>
       <c r="H5" t="n">
-        <v>55.6866666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F6" t="n">
-        <v>7380.2754</v>
+        <v>1590</v>
       </c>
       <c r="G6" t="n">
-        <v>56.27333333333335</v>
+        <v>125081.12192375</v>
       </c>
       <c r="H6" t="n">
-        <v>55.70833333333327</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C7" t="n">
         <v>55.8</v>
       </c>
-      <c r="C7" t="n">
-        <v>55.6</v>
-      </c>
       <c r="D7" t="n">
-        <v>55.9</v>
+        <v>56.9</v>
       </c>
       <c r="E7" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="F7" t="n">
-        <v>9227.3069</v>
+        <v>10254.7067</v>
       </c>
       <c r="G7" t="n">
-        <v>56.28000000000002</v>
+        <v>114826.41522375</v>
       </c>
       <c r="H7" t="n">
-        <v>55.7216666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C8" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="D8" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="E8" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="F8" t="n">
-        <v>4572.192</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>56.22666666666668</v>
+        <v>114827.41522375</v>
       </c>
       <c r="H8" t="n">
-        <v>55.73999999999993</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,33 +681,30 @@
         <v>55.9</v>
       </c>
       <c r="C9" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="D9" t="n">
         <v>55.9</v>
       </c>
       <c r="E9" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>15428.8634</v>
+        <v>5200</v>
       </c>
       <c r="G9" t="n">
-        <v>56.21333333333335</v>
+        <v>109627.41522375</v>
       </c>
       <c r="H9" t="n">
-        <v>55.75833333333326</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="C10" t="n">
         <v>55.6</v>
       </c>
       <c r="D10" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="E10" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F10" t="n">
-        <v>17288</v>
+        <v>3690.358</v>
       </c>
       <c r="G10" t="n">
-        <v>56.14000000000001</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H10" t="n">
-        <v>55.74999999999993</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="C11" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="E11" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F11" t="n">
-        <v>34132.0795</v>
+        <v>10304.061</v>
       </c>
       <c r="G11" t="n">
-        <v>56.11333333333334</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H11" t="n">
-        <v>55.77333333333327</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="C12" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="D12" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F12" t="n">
-        <v>3852</v>
+        <v>1739.537</v>
       </c>
       <c r="G12" t="n">
-        <v>56.04666666666667</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H12" t="n">
-        <v>55.78499999999994</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="C13" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="D13" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="E13" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F13" t="n">
-        <v>843.14095373</v>
+        <v>11635.1937</v>
       </c>
       <c r="G13" t="n">
-        <v>56.04666666666667</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H13" t="n">
-        <v>55.80333333333327</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="C14" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="D14" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="E14" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1695.2818</v>
+        <v>822.7846</v>
       </c>
       <c r="G14" t="n">
-        <v>56.03333333333333</v>
+        <v>105114.27262375</v>
       </c>
       <c r="H14" t="n">
-        <v>55.81999999999994</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C15" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="D15" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="E15" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="F15" t="n">
-        <v>427.8462</v>
+        <v>346.6843</v>
       </c>
       <c r="G15" t="n">
-        <v>55.94666666666667</v>
+        <v>105460.95692375</v>
       </c>
       <c r="H15" t="n">
-        <v>55.83833333333327</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="C16" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="D16" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="E16" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="F16" t="n">
-        <v>26953.3213</v>
+        <v>191.1003</v>
       </c>
       <c r="G16" t="n">
-        <v>55.89333333333333</v>
+        <v>105269.85662375</v>
       </c>
       <c r="H16" t="n">
-        <v>55.85833333333327</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="C17" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="E17" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="F17" t="n">
-        <v>26077.4642</v>
+        <v>595.7576</v>
       </c>
       <c r="G17" t="n">
-        <v>55.88666666666667</v>
+        <v>104674.09902375</v>
       </c>
       <c r="H17" t="n">
-        <v>55.8766666666666</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C18" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="D18" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="E18" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="F18" t="n">
-        <v>11751</v>
+        <v>2849.461</v>
       </c>
       <c r="G18" t="n">
-        <v>55.85333333333334</v>
+        <v>107523.56002375</v>
       </c>
       <c r="H18" t="n">
-        <v>55.8766666666666</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C19" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D19" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E19" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F19" t="n">
-        <v>592</v>
+        <v>35595.1026</v>
       </c>
       <c r="G19" t="n">
-        <v>55.82000000000001</v>
+        <v>71928.45742374998</v>
       </c>
       <c r="H19" t="n">
-        <v>55.87499999999994</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C20" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D20" t="n">
-        <v>55.5</v>
+        <v>56.9</v>
       </c>
       <c r="E20" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F20" t="n">
-        <v>9456.0978</v>
+        <v>46399.1645</v>
       </c>
       <c r="G20" t="n">
-        <v>55.78666666666667</v>
+        <v>71928.45742374998</v>
       </c>
       <c r="H20" t="n">
-        <v>55.8666666666666</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C21" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="D21" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="E21" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1733.1022</v>
+        <v>2000</v>
       </c>
       <c r="G21" t="n">
-        <v>55.80666666666666</v>
+        <v>73928.45742374998</v>
       </c>
       <c r="H21" t="n">
-        <v>55.88666666666661</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="C22" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="D22" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="E22" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F22" t="n">
-        <v>19800</v>
+        <v>1760.44</v>
       </c>
       <c r="G22" t="n">
-        <v>55.8</v>
+        <v>75688.89742374998</v>
       </c>
       <c r="H22" t="n">
-        <v>55.88499999999995</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="C23" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="D23" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="E23" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="F23" t="n">
-        <v>11109.5152</v>
+        <v>420.8171</v>
       </c>
       <c r="G23" t="n">
-        <v>55.76666666666667</v>
+        <v>75268.08032374998</v>
       </c>
       <c r="H23" t="n">
-        <v>55.88999999999995</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C24" t="n">
-        <v>55.1</v>
+        <v>56.7</v>
       </c>
       <c r="D24" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="E24" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="F24" t="n">
-        <v>5101.9999</v>
+        <v>8133.1114</v>
       </c>
       <c r="G24" t="n">
-        <v>55.71333333333334</v>
+        <v>83401.19172374997</v>
       </c>
       <c r="H24" t="n">
-        <v>55.88166666666662</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="C25" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="D25" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="E25" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F25" t="n">
-        <v>6326.8076</v>
+        <v>161.6102</v>
       </c>
       <c r="G25" t="n">
-        <v>55.70666666666667</v>
+        <v>83401.19172374997</v>
       </c>
       <c r="H25" t="n">
-        <v>55.88833333333329</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="C26" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="D26" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="E26" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F26" t="n">
-        <v>5500</v>
+        <v>7658.0832</v>
       </c>
       <c r="G26" t="n">
-        <v>55.64666666666667</v>
+        <v>91059.27492374997</v>
       </c>
       <c r="H26" t="n">
-        <v>55.89333333333329</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="C27" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="D27" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="E27" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="F27" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="G27" t="n">
-        <v>55.61333333333334</v>
+        <v>87659.27492374997</v>
       </c>
       <c r="H27" t="n">
-        <v>55.89666666666663</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C28" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="D28" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="E28" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="F28" t="n">
-        <v>2059.305</v>
+        <v>1685.9751</v>
       </c>
       <c r="G28" t="n">
-        <v>55.55333333333333</v>
+        <v>85973.29982374997</v>
       </c>
       <c r="H28" t="n">
-        <v>55.89999999999996</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.5</v>
+        <v>56.8</v>
       </c>
       <c r="C29" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
       <c r="D29" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
       <c r="E29" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F29" t="n">
-        <v>6329.5988</v>
+        <v>177100.2339</v>
       </c>
       <c r="G29" t="n">
-        <v>55.53333333333333</v>
+        <v>263073.53372375</v>
       </c>
       <c r="H29" t="n">
-        <v>55.8983333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="C30" t="n">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
       <c r="D30" t="n">
-        <v>55.4</v>
+        <v>57.1</v>
       </c>
       <c r="E30" t="n">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
       <c r="F30" t="n">
-        <v>5890.6281</v>
+        <v>31064.4137</v>
       </c>
       <c r="G30" t="n">
-        <v>55.5</v>
+        <v>232009.12002375</v>
       </c>
       <c r="H30" t="n">
-        <v>55.89999999999996</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
       <c r="C31" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="D31" t="n">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
       <c r="E31" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F31" t="n">
-        <v>997.5</v>
+        <v>10504.3324</v>
       </c>
       <c r="G31" t="n">
-        <v>55.47333333333334</v>
+        <v>221504.78762375</v>
       </c>
       <c r="H31" t="n">
-        <v>55.89499999999997</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="C32" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="D32" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="E32" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>8954.009099999999</v>
       </c>
       <c r="G32" t="n">
-        <v>55.45333333333333</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H32" t="n">
-        <v>55.88666666666663</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="C33" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D33" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="E33" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F33" t="n">
-        <v>9474.314200000001</v>
+        <v>1821.317</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42666666666666</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H33" t="n">
-        <v>55.86666666666663</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D34" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E34" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F34" t="n">
-        <v>58436.3774</v>
+        <v>9760.6603</v>
       </c>
       <c r="G34" t="n">
-        <v>55.4</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H34" t="n">
-        <v>55.83999999999996</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="C35" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D35" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E35" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F35" t="n">
-        <v>32705.9846</v>
+        <v>7380.2754</v>
       </c>
       <c r="G35" t="n">
-        <v>55.37333333333333</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H35" t="n">
-        <v>55.80999999999996</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C36" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="D36" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="E36" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="F36" t="n">
-        <v>31739.2965</v>
+        <v>9227.3069</v>
       </c>
       <c r="G36" t="n">
-        <v>55.28666666666667</v>
+        <v>221231.48982375</v>
       </c>
       <c r="H36" t="n">
-        <v>55.79166666666663</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C37" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="D37" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="E37" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="F37" t="n">
-        <v>14570.426</v>
+        <v>4572.192</v>
       </c>
       <c r="G37" t="n">
-        <v>55.25333333333334</v>
+        <v>225803.68182375</v>
       </c>
       <c r="H37" t="n">
-        <v>55.7683333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="C38" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="D38" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="E38" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="F38" t="n">
-        <v>829.49</v>
+        <v>15428.8634</v>
       </c>
       <c r="G38" t="n">
-        <v>55.24666666666667</v>
+        <v>225803.68182375</v>
       </c>
       <c r="H38" t="n">
-        <v>55.75999999999996</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>55.2</v>
+        <v>56.4</v>
       </c>
       <c r="C39" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="D39" t="n">
-        <v>55.2</v>
+        <v>56.4</v>
       </c>
       <c r="E39" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1043.5079</v>
+        <v>17288</v>
       </c>
       <c r="G39" t="n">
-        <v>55.25333333333334</v>
+        <v>208515.68182375</v>
       </c>
       <c r="H39" t="n">
-        <v>55.73666666666663</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
       <c r="C40" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
       <c r="D40" t="n">
-        <v>55.3</v>
+        <v>56.4</v>
       </c>
       <c r="E40" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="F40" t="n">
-        <v>503.9517</v>
+        <v>34132.0795</v>
       </c>
       <c r="G40" t="n">
-        <v>55.24</v>
+        <v>242647.76132375</v>
       </c>
       <c r="H40" t="n">
-        <v>55.72833333333329</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="C41" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="D41" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="E41" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F41" t="n">
-        <v>8756.3572</v>
+        <v>3852</v>
       </c>
       <c r="G41" t="n">
-        <v>55.22000000000001</v>
+        <v>238795.76132375</v>
       </c>
       <c r="H41" t="n">
-        <v>55.71999999999996</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="C42" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="D42" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="E42" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F42" t="n">
-        <v>2186.0536</v>
+        <v>843.14095373</v>
       </c>
       <c r="G42" t="n">
-        <v>55.20666666666668</v>
+        <v>239638.90227748</v>
       </c>
       <c r="H42" t="n">
-        <v>55.71166666666662</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C43" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="D43" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="E43" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="F43" t="n">
-        <v>7638.938</v>
+        <v>1695.2818</v>
       </c>
       <c r="G43" t="n">
-        <v>55.18666666666668</v>
+        <v>237943.62047748</v>
       </c>
       <c r="H43" t="n">
-        <v>55.70166666666663</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="C44" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="D44" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="E44" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>427.8462</v>
       </c>
       <c r="G44" t="n">
-        <v>55.21333333333335</v>
+        <v>237515.77427748</v>
       </c>
       <c r="H44" t="n">
-        <v>55.70666666666663</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C45" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="D45" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="E45" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>26953.3213</v>
       </c>
       <c r="G45" t="n">
-        <v>55.22666666666667</v>
+        <v>264469.09557748</v>
       </c>
       <c r="H45" t="n">
-        <v>55.70833333333329</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="C46" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="D46" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="E46" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="F46" t="n">
-        <v>12331.2752</v>
+        <v>26077.4642</v>
       </c>
       <c r="G46" t="n">
-        <v>55.22000000000001</v>
+        <v>238391.63137748</v>
       </c>
       <c r="H46" t="n">
-        <v>55.68999999999996</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.2</v>
+        <v>55.7</v>
       </c>
       <c r="C47" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D47" t="n">
-        <v>55.2</v>
+        <v>55.7</v>
       </c>
       <c r="E47" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>11751</v>
       </c>
       <c r="G47" t="n">
-        <v>55.20666666666668</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H47" t="n">
-        <v>55.67166666666662</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="C48" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D48" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E48" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F48" t="n">
-        <v>16056.1506</v>
+        <v>592</v>
       </c>
       <c r="G48" t="n">
-        <v>55.20666666666668</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H48" t="n">
-        <v>55.66833333333329</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="E49" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F49" t="n">
-        <v>264.8929</v>
+        <v>9456.0978</v>
       </c>
       <c r="G49" t="n">
-        <v>55.20000000000001</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H49" t="n">
-        <v>55.65333333333329</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C50" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="D50" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="E50" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>1733.1022</v>
       </c>
       <c r="G50" t="n">
-        <v>55.20000000000001</v>
+        <v>228373.73357748</v>
       </c>
       <c r="H50" t="n">
-        <v>55.64833333333328</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="C51" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D51" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="E51" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F51" t="n">
-        <v>595.9016</v>
+        <v>19800</v>
       </c>
       <c r="G51" t="n">
-        <v>55.20666666666668</v>
+        <v>208573.73357748</v>
       </c>
       <c r="H51" t="n">
-        <v>55.64333333333328</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C52" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D52" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="E52" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F52" t="n">
-        <v>29.1152</v>
+        <v>11109.5152</v>
       </c>
       <c r="G52" t="n">
-        <v>55.21333333333335</v>
+        <v>197464.21837748</v>
       </c>
       <c r="H52" t="n">
-        <v>55.63666666666661</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C53" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D53" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E53" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F53" t="n">
-        <v>4015.4965</v>
+        <v>5101.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>55.20666666666668</v>
+        <v>192362.21847748</v>
       </c>
       <c r="H53" t="n">
-        <v>55.61166666666661</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="C54" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D54" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="E54" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F54" t="n">
-        <v>11288.914</v>
+        <v>6326.8076</v>
       </c>
       <c r="G54" t="n">
-        <v>55.20000000000002</v>
+        <v>198689.02607748</v>
       </c>
       <c r="H54" t="n">
-        <v>55.59499999999994</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C55" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D55" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="E55" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F55" t="n">
-        <v>17976.184</v>
+        <v>5500</v>
       </c>
       <c r="G55" t="n">
-        <v>55.18666666666669</v>
+        <v>193189.02607748</v>
       </c>
       <c r="H55" t="n">
-        <v>55.56833333333328</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C56" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D56" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E56" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="F56" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="n">
-        <v>55.25333333333335</v>
+        <v>191189.02607748</v>
       </c>
       <c r="H56" t="n">
-        <v>55.55833333333328</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C57" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D57" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E57" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="F57" t="n">
-        <v>5952.0791</v>
+        <v>2059.305</v>
       </c>
       <c r="G57" t="n">
-        <v>55.32000000000002</v>
+        <v>191189.02607748</v>
       </c>
       <c r="H57" t="n">
-        <v>55.54666666666661</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="C58" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="D58" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="E58" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1696.9999</v>
+        <v>6329.5988</v>
       </c>
       <c r="G58" t="n">
-        <v>55.39333333333335</v>
+        <v>197518.62487748</v>
       </c>
       <c r="H58" t="n">
-        <v>55.54499999999994</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="C59" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="D59" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="E59" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="F59" t="n">
-        <v>8909.1312</v>
+        <v>5890.6281</v>
       </c>
       <c r="G59" t="n">
-        <v>55.40666666666669</v>
+        <v>191627.99677748</v>
       </c>
       <c r="H59" t="n">
-        <v>55.54666666666661</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="C60" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="D60" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="E60" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="F60" t="n">
-        <v>10923.1681</v>
+        <v>997.5</v>
       </c>
       <c r="G60" t="n">
-        <v>55.45333333333336</v>
+        <v>192625.49677748</v>
       </c>
       <c r="H60" t="n">
-        <v>55.53166666666661</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="C61" t="n">
         <v>55.4</v>
       </c>
       <c r="D61" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="E61" t="n">
         <v>55.4</v>
       </c>
       <c r="F61" t="n">
-        <v>48701.539</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>55.46000000000003</v>
+        <v>192625.49677748</v>
       </c>
       <c r="H61" t="n">
-        <v>55.51166666666661</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C62" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D62" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E62" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F62" t="n">
-        <v>29027.0672</v>
+        <v>9474.314200000001</v>
       </c>
       <c r="G62" t="n">
-        <v>55.48000000000003</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H62" t="n">
-        <v>55.50666666666661</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C63" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D63" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="E63" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F63" t="n">
-        <v>5918.1336</v>
+        <v>58436.3774</v>
       </c>
       <c r="G63" t="n">
-        <v>55.50000000000002</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H63" t="n">
-        <v>55.49666666666661</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="C64" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D64" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="E64" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F64" t="n">
-        <v>1841.2532</v>
+        <v>32705.9846</v>
       </c>
       <c r="G64" t="n">
-        <v>55.56000000000002</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H64" t="n">
-        <v>55.49499999999994</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D65" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F65" t="n">
-        <v>4241.0328</v>
+        <v>31739.2965</v>
       </c>
       <c r="G65" t="n">
-        <v>55.62000000000002</v>
+        <v>151411.88607748</v>
       </c>
       <c r="H65" t="n">
-        <v>55.49499999999994</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="C66" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="E66" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>14570.426</v>
       </c>
       <c r="G66" t="n">
-        <v>55.68666666666669</v>
+        <v>151411.88607748</v>
       </c>
       <c r="H66" t="n">
-        <v>55.49666666666661</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C67" t="n">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="D67" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E67" t="n">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="F67" t="n">
-        <v>1396.4997</v>
+        <v>829.49</v>
       </c>
       <c r="G67" t="n">
-        <v>55.74666666666668</v>
+        <v>152241.37607748</v>
       </c>
       <c r="H67" t="n">
-        <v>55.50333333333328</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="C68" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="D68" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="E68" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="F68" t="n">
-        <v>37308.8985</v>
+        <v>1043.5079</v>
       </c>
       <c r="G68" t="n">
-        <v>55.80000000000002</v>
+        <v>151197.86817748</v>
       </c>
       <c r="H68" t="n">
-        <v>55.50499999999995</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C69" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D69" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E69" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>503.9517</v>
       </c>
       <c r="G69" t="n">
-        <v>55.86666666666668</v>
+        <v>151701.81987748</v>
       </c>
       <c r="H69" t="n">
-        <v>55.50833333333328</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="C70" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="D70" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="E70" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="F70" t="n">
-        <v>1553.9989</v>
+        <v>8756.3572</v>
       </c>
       <c r="G70" t="n">
-        <v>55.94666666666668</v>
+        <v>142945.46267748</v>
       </c>
       <c r="H70" t="n">
-        <v>55.51999999999995</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="C71" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="D71" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="E71" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="F71" t="n">
-        <v>7553.9008</v>
+        <v>2186.0536</v>
       </c>
       <c r="G71" t="n">
-        <v>55.97333333333334</v>
+        <v>142945.46267748</v>
       </c>
       <c r="H71" t="n">
-        <v>55.52333333333328</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="C72" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="D72" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="E72" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="F72" t="n">
-        <v>1793.0211</v>
+        <v>7638.938</v>
       </c>
       <c r="G72" t="n">
-        <v>56.00666666666667</v>
+        <v>135306.52467748</v>
       </c>
       <c r="H72" t="n">
-        <v>55.5366666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C73" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="D73" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="E73" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="F73" t="n">
-        <v>8870.425999999999</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="n">
-        <v>56.04666666666667</v>
+        <v>136506.52467748</v>
       </c>
       <c r="H73" t="n">
-        <v>55.54499999999994</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>56.8</v>
+        <v>55.4</v>
       </c>
       <c r="C74" t="n">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="D74" t="n">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="E74" t="n">
-        <v>56.8</v>
+        <v>55.4</v>
       </c>
       <c r="F74" t="n">
-        <v>24912.3374</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>56.10000000000001</v>
+        <v>136496.52467748</v>
       </c>
       <c r="H74" t="n">
-        <v>55.56333333333327</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>56.9</v>
+        <v>55.3</v>
       </c>
       <c r="C75" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="D75" t="n">
-        <v>57</v>
+        <v>55.3</v>
       </c>
       <c r="E75" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2284</v>
+        <v>12331.2752</v>
       </c>
       <c r="G75" t="n">
-        <v>56.12</v>
+        <v>124165.24947748</v>
       </c>
       <c r="H75" t="n">
-        <v>55.57499999999994</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="C76" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="D76" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="E76" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="F76" t="n">
-        <v>158.2702</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>56.16666666666667</v>
+        <v>123165.24947748</v>
       </c>
       <c r="H76" t="n">
-        <v>55.57999999999993</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="C77" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D77" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E77" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F77" t="n">
-        <v>16637.6234</v>
+        <v>16056.1506</v>
       </c>
       <c r="G77" t="n">
-        <v>56.19333333333334</v>
+        <v>107109.09887748</v>
       </c>
       <c r="H77" t="n">
-        <v>55.58333333333327</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C78" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="D78" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="E78" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="F78" t="n">
-        <v>16637.6236</v>
+        <v>264.8929</v>
       </c>
       <c r="G78" t="n">
-        <v>56.20666666666668</v>
+        <v>106844.20597748</v>
       </c>
       <c r="H78" t="n">
-        <v>55.58499999999994</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C79" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D79" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E79" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F79" t="n">
-        <v>195.4466</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="n">
-        <v>56.18666666666668</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H79" t="n">
-        <v>55.5866666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C80" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D80" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E80" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F80" t="n">
-        <v>2063.2908</v>
+        <v>595.9016</v>
       </c>
       <c r="G80" t="n">
-        <v>56.16000000000001</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H80" t="n">
-        <v>55.58833333333327</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C81" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D81" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E81" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F81" t="n">
-        <v>311.492</v>
+        <v>29.1152</v>
       </c>
       <c r="G81" t="n">
-        <v>56.12666666666668</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H81" t="n">
-        <v>55.5766666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="C82" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="D82" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="E82" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="F82" t="n">
-        <v>181.8181</v>
+        <v>4015.4965</v>
       </c>
       <c r="G82" t="n">
-        <v>56.10000000000002</v>
+        <v>111859.70247748</v>
       </c>
       <c r="H82" t="n">
-        <v>55.57833333333326</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C83" t="n">
-        <v>55.7</v>
+        <v>55.1</v>
       </c>
       <c r="D83" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="E83" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F83" t="n">
-        <v>46373.6076</v>
+        <v>11288.914</v>
       </c>
       <c r="G83" t="n">
-        <v>56.08000000000002</v>
+        <v>100570.78847748</v>
       </c>
       <c r="H83" t="n">
-        <v>55.58333333333326</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C84" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D84" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="E84" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F84" t="n">
-        <v>2531.084</v>
+        <v>17976.184</v>
       </c>
       <c r="G84" t="n">
-        <v>56.03333333333335</v>
+        <v>100570.78847748</v>
       </c>
       <c r="H84" t="n">
-        <v>55.58833333333326</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="C85" t="n">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="D85" t="n">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="E85" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="F85" t="n">
-        <v>4170</v>
+        <v>1400</v>
       </c>
       <c r="G85" t="n">
-        <v>55.95333333333335</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H85" t="n">
-        <v>55.58166666666659</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="C86" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="D86" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E86" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="F86" t="n">
-        <v>80670.6465</v>
+        <v>5952.0791</v>
       </c>
       <c r="G86" t="n">
-        <v>55.85333333333335</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H86" t="n">
-        <v>55.57499999999992</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="C87" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D87" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E87" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="F87" t="n">
-        <v>6351.0223</v>
+        <v>1696.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>55.74000000000002</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H87" t="n">
-        <v>55.56833333333326</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="C88" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D88" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="E88" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="F88" t="n">
-        <v>1855.35</v>
+        <v>8909.1312</v>
       </c>
       <c r="G88" t="n">
-        <v>55.62000000000001</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H88" t="n">
-        <v>55.56166666666659</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="C89" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="D89" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="E89" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="F89" t="n">
-        <v>251.6483</v>
+        <v>10923.1681</v>
       </c>
       <c r="G89" t="n">
-        <v>55.48000000000001</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H89" t="n">
-        <v>55.54999999999993</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="C90" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="D90" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="E90" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F90" t="n">
-        <v>750</v>
+        <v>48701.539</v>
       </c>
       <c r="G90" t="n">
-        <v>55.38000000000001</v>
+        <v>53269.24947748001</v>
       </c>
       <c r="H90" t="n">
-        <v>55.54499999999993</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="C91" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="D91" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="E91" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F91" t="n">
-        <v>1056.733</v>
+        <v>29027.0672</v>
       </c>
       <c r="G91" t="n">
-        <v>55.3</v>
+        <v>82296.31667748</v>
       </c>
       <c r="H91" t="n">
-        <v>55.5366666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="C92" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="D92" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="E92" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="F92" t="n">
-        <v>5692.8917</v>
+        <v>5918.1336</v>
       </c>
       <c r="G92" t="n">
-        <v>55.22000000000001</v>
+        <v>76378.18307748</v>
       </c>
       <c r="H92" t="n">
-        <v>55.52499999999993</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="C93" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="D93" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="E93" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="F93" t="n">
-        <v>4100</v>
+        <v>1841.2532</v>
       </c>
       <c r="G93" t="n">
-        <v>55.16000000000001</v>
+        <v>78219.43627748001</v>
       </c>
       <c r="H93" t="n">
-        <v>55.51833333333325</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,40 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="C94" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="D94" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="E94" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="F94" t="n">
-        <v>1695.9999</v>
+        <v>4241.0328</v>
       </c>
       <c r="G94" t="n">
-        <v>55.10666666666668</v>
+        <v>82460.46907748001</v>
       </c>
       <c r="H94" t="n">
-        <v>55.51333333333326</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L94" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,714 +3688,1679 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100</v>
+      </c>
+      <c r="G95" t="n">
+        <v>82560.46907748001</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>56</v>
+      </c>
+      <c r="D96" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>56</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1396.4997</v>
+      </c>
+      <c r="G96" t="n">
+        <v>81163.96937748001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>56</v>
+      </c>
+      <c r="C97" t="n">
+        <v>56</v>
+      </c>
+      <c r="D97" t="n">
+        <v>56</v>
+      </c>
+      <c r="E97" t="n">
+        <v>56</v>
+      </c>
+      <c r="F97" t="n">
+        <v>37308.8985</v>
+      </c>
+      <c r="G97" t="n">
+        <v>81163.96937748001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>83163.96937748001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1553.9989</v>
+      </c>
+      <c r="G99" t="n">
+        <v>84717.96827748002</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7553.9008</v>
+      </c>
+      <c r="G100" t="n">
+        <v>92271.86907748002</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1793.0211</v>
+      </c>
+      <c r="G101" t="n">
+        <v>94064.89017748002</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C102" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D102" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E102" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8870.425999999999</v>
+      </c>
+      <c r="G102" t="n">
+        <v>102935.31617748</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24912.3374</v>
+      </c>
+      <c r="G103" t="n">
+        <v>127847.65357748</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>57</v>
+      </c>
+      <c r="E104" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2284</v>
+      </c>
+      <c r="G104" t="n">
+        <v>125563.65357748</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>158.2702</v>
+      </c>
+      <c r="G105" t="n">
+        <v>125405.38337748</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C106" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>16637.6234</v>
+      </c>
+      <c r="G106" t="n">
+        <v>108767.75997748</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>16637.6236</v>
+      </c>
+      <c r="G107" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D108" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>195.4466</v>
+      </c>
+      <c r="G108" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2063.2908</v>
+      </c>
+      <c r="G109" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>311.492</v>
+      </c>
+      <c r="G110" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F111" t="n">
+        <v>181.8181</v>
+      </c>
+      <c r="G111" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>55</v>
+      </c>
+      <c r="F112" t="n">
+        <v>46373.6076</v>
+      </c>
+      <c r="G112" t="n">
+        <v>138503.74397748</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2531.084</v>
+      </c>
+      <c r="G113" t="n">
+        <v>135972.65997748</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G114" t="n">
+        <v>131802.65997748</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>55</v>
+      </c>
+      <c r="C115" t="n">
+        <v>55</v>
+      </c>
+      <c r="D115" t="n">
+        <v>55</v>
+      </c>
+      <c r="E115" t="n">
+        <v>55</v>
+      </c>
+      <c r="F115" t="n">
+        <v>80670.6465</v>
+      </c>
+      <c r="G115" t="n">
+        <v>51132.01347748004</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>55</v>
+      </c>
+      <c r="C116" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>55</v>
+      </c>
+      <c r="E116" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6351.0223</v>
+      </c>
+      <c r="G116" t="n">
+        <v>44780.99117748004</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C117" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1855.35</v>
+      </c>
+      <c r="G117" t="n">
+        <v>44780.99117748004</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
         <v>54.8</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C118" t="n">
         <v>54.8</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D118" t="n">
         <v>54.8</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E118" t="n">
         <v>54.8</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F118" t="n">
+        <v>251.6483</v>
+      </c>
+      <c r="G118" t="n">
+        <v>44529.34287748004</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C119" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>750</v>
+      </c>
+      <c r="G119" t="n">
+        <v>45279.34287748004</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1056.733</v>
+      </c>
+      <c r="G120" t="n">
+        <v>45279.34287748004</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C121" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D121" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5692.8917</v>
+      </c>
+      <c r="G121" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G122" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1695.9999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>41282.45107748004</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K123" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F124" t="n">
         <v>2812.5</v>
       </c>
-      <c r="G95" t="n">
-        <v>55.05333333333333</v>
-      </c>
-      <c r="H95" t="n">
-        <v>55.50833333333326</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
+      <c r="G124" t="n">
+        <v>41282.45107748004</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K124" t="n">
         <v>54.7</v>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
         <v>54.8</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C125" t="n">
         <v>54.6</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D125" t="n">
         <v>54.8</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E125" t="n">
         <v>54.6</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F125" t="n">
         <v>18900</v>
       </c>
-      <c r="G96" t="n">
-        <v>54.98666666666667</v>
-      </c>
-      <c r="H96" t="n">
-        <v>55.50166666666659</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
+      <c r="G125" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K125" t="n">
         <v>54.7</v>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>54.6</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C126" t="n">
         <v>54.6</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D126" t="n">
         <v>54.6</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E126" t="n">
         <v>54.6</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F126" t="n">
         <v>652.9592</v>
       </c>
-      <c r="G97" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="H97" t="n">
-        <v>55.49499999999993</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
+      <c r="G126" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
         <v>54.6</v>
       </c>
-      <c r="L97" t="n">
+      <c r="K126" t="n">
         <v>54.7</v>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
         <v>54.6</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C127" t="n">
         <v>54.6</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D127" t="n">
         <v>54.6</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E127" t="n">
         <v>54.6</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F127" t="n">
         <v>8214.3392</v>
       </c>
-      <c r="G98" t="n">
-        <v>54.84666666666667</v>
-      </c>
-      <c r="H98" t="n">
-        <v>55.48333333333326</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L98" t="n">
+      <c r="G127" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
         <v>54.7</v>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
         <v>54.8</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C128" t="n">
         <v>54.8</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D128" t="n">
         <v>54.8</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E128" t="n">
         <v>54.8</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F128" t="n">
         <v>2460.2304</v>
       </c>
-      <c r="G99" t="n">
-        <v>54.80666666666666</v>
-      </c>
-      <c r="H99" t="n">
-        <v>55.4766666666666</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L99" t="n">
+      <c r="G128" t="n">
+        <v>24842.68147748004</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
         <v>54.7</v>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
         <v>55.3</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C129" t="n">
         <v>55.3</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D129" t="n">
         <v>55.3</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E129" t="n">
         <v>55.3</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F129" t="n">
         <v>2000</v>
       </c>
-      <c r="G100" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="H100" t="n">
-        <v>55.4766666666666</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L100" t="n">
+      <c r="G129" t="n">
+        <v>26842.68147748004</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
         <v>54.7</v>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
         <v>55.1</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C130" t="n">
         <v>54.6</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D130" t="n">
         <v>55.9</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E130" t="n">
         <v>54.6</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F130" t="n">
         <v>21217.0281</v>
       </c>
-      <c r="G101" t="n">
-        <v>54.79333333333333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>55.46833333333326</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="L101" t="n">
+      <c r="G130" t="n">
+        <v>5625.653377480045</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
         <v>54.7</v>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>55.9</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C131" t="n">
         <v>56</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D131" t="n">
         <v>56</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E131" t="n">
         <v>55.9</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F131" t="n">
         <v>10200</v>
       </c>
-      <c r="G102" t="n">
-        <v>54.86666666666667</v>
-      </c>
-      <c r="H102" t="n">
-        <v>55.48333333333326</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="G131" t="n">
+        <v>15825.65337748004</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
         <v>54.7</v>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
         <v>56.1</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C132" t="n">
         <v>57</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D132" t="n">
         <v>57</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E132" t="n">
         <v>56.1</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F132" t="n">
         <v>62900.099</v>
       </c>
-      <c r="G103" t="n">
-        <v>55.00666666666667</v>
-      </c>
-      <c r="H103" t="n">
-        <v>55.5166666666666</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
+      <c r="G132" t="n">
+        <v>78725.75237748005</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
         <v>54.7</v>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>56.2</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C133" t="n">
         <v>56.2</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D133" t="n">
         <v>56.2</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E133" t="n">
         <v>56.2</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F133" t="n">
         <v>1000</v>
       </c>
-      <c r="G104" t="n">
-        <v>55.10000000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>55.5216666666666</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
+      <c r="G133" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
         <v>54.7</v>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
         <v>56.2</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C134" t="n">
         <v>56.2</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D134" t="n">
         <v>56.2</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E134" t="n">
         <v>56.2</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F134" t="n">
         <v>17345.2434</v>
       </c>
-      <c r="G105" t="n">
-        <v>55.18666666666668</v>
-      </c>
-      <c r="H105" t="n">
-        <v>55.53499999999993</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
+      <c r="G134" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
         <v>54.7</v>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
         <v>56.2</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C135" t="n">
         <v>56.2</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D135" t="n">
         <v>56.2</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E135" t="n">
         <v>56.2</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F135" t="n">
         <v>29949.5061</v>
       </c>
-      <c r="G106" t="n">
-        <v>55.27333333333335</v>
-      </c>
-      <c r="H106" t="n">
-        <v>55.54999999999992</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
+      <c r="G135" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
         <v>54.7</v>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>56.2</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C136" t="n">
         <v>56.2</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D136" t="n">
         <v>56.2</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E136" t="n">
         <v>56.2</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F136" t="n">
         <v>6012.6531</v>
       </c>
-      <c r="G107" t="n">
-        <v>55.37333333333335</v>
-      </c>
-      <c r="H107" t="n">
-        <v>55.56666666666658</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
+      <c r="G136" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
         <v>54.7</v>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>56.2</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C137" t="n">
         <v>56.2</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D137" t="n">
         <v>56.2</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E137" t="n">
         <v>56.2</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F137" t="n">
         <v>1485125.3157</v>
       </c>
-      <c r="G108" t="n">
-        <v>55.47333333333335</v>
-      </c>
-      <c r="H108" t="n">
-        <v>55.58499999999992</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
+      <c r="G137" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
         <v>54.7</v>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>56.2</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C138" t="n">
         <v>56.2</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D138" t="n">
         <v>56.2</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E138" t="n">
         <v>56.2</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F138" t="n">
         <v>1629428.9901</v>
       </c>
-      <c r="G109" t="n">
-        <v>55.56666666666669</v>
-      </c>
-      <c r="H109" t="n">
-        <v>55.60499999999991</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
+      <c r="G138" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
         <v>54.7</v>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
         <v>56.2</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C139" t="n">
         <v>56.2</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D139" t="n">
         <v>56.2</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E139" t="n">
         <v>56.2</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F139" t="n">
         <v>1659492.2556</v>
       </c>
-      <c r="G110" t="n">
-        <v>55.66000000000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>55.62333333333324</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
+      <c r="G139" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
         <v>54.7</v>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1819,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1924,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1959,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2029,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2134,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2204,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2309,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3394,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3429,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3464,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3954,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3989,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4059,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4094,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4592,6 +4715,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4627,6 +4751,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4662,6 +4787,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4701,6 +4827,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4744,6 +4871,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4787,6 +4915,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4830,6 +4959,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4871,6 +5001,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4912,6 +5043,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4953,6 +5085,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4994,6 +5127,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5035,6 +5169,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5076,6 +5211,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5117,6 +5253,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5158,6 +5295,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5199,6 +5337,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5240,6 +5379,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5281,6 +5421,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5322,6 +5463,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5363,6 +5505,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55.9</v>
+        <v>54.9</v>
       </c>
       <c r="C2" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="D2" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="E2" t="n">
-        <v>55.9</v>
+        <v>54.9</v>
       </c>
       <c r="F2" t="n">
-        <v>15400</v>
+        <v>8300</v>
       </c>
       <c r="G2" t="n">
-        <v>70000.79772374999</v>
+        <v>117019.4217</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="C3" t="n">
-        <v>56.7</v>
+        <v>54.7</v>
       </c>
       <c r="D3" t="n">
-        <v>56.7</v>
+        <v>54.9</v>
       </c>
       <c r="E3" t="n">
-        <v>56.3</v>
+        <v>54.7</v>
       </c>
       <c r="F3" t="n">
-        <v>62990.8509</v>
+        <v>591.6552</v>
       </c>
       <c r="G3" t="n">
-        <v>132991.64862375</v>
+        <v>116427.7665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56.8</v>
+        <v>54.7</v>
       </c>
       <c r="C4" t="n">
-        <v>56.9</v>
+        <v>54.7</v>
       </c>
       <c r="D4" t="n">
-        <v>56.9</v>
+        <v>54.7</v>
       </c>
       <c r="E4" t="n">
-        <v>56.8</v>
+        <v>54.7</v>
       </c>
       <c r="F4" t="n">
-        <v>44736.5506</v>
+        <v>20317.3903</v>
       </c>
       <c r="G4" t="n">
-        <v>177728.19922375</v>
+        <v>116427.7665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
       <c r="C5" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="D5" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
       <c r="E5" t="n">
-        <v>56.1</v>
+        <v>54.8</v>
       </c>
       <c r="F5" t="n">
-        <v>54237.0773</v>
+        <v>1971</v>
       </c>
       <c r="G5" t="n">
-        <v>123491.12192375</v>
+        <v>118398.7665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="C6" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="D6" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="E6" t="n">
-        <v>56.4</v>
+        <v>54.8</v>
       </c>
       <c r="F6" t="n">
-        <v>1590</v>
+        <v>29990.7676</v>
       </c>
       <c r="G6" t="n">
-        <v>125081.12192375</v>
+        <v>118398.7665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
       <c r="C7" t="n">
-        <v>55.8</v>
+        <v>54.8</v>
       </c>
       <c r="D7" t="n">
-        <v>56.9</v>
+        <v>54.8</v>
       </c>
       <c r="E7" t="n">
-        <v>55.8</v>
+        <v>54.8</v>
       </c>
       <c r="F7" t="n">
-        <v>10254.7067</v>
+        <v>16461.7224</v>
       </c>
       <c r="G7" t="n">
-        <v>114826.41522375</v>
+        <v>118398.7665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56.6</v>
+        <v>54.8</v>
       </c>
       <c r="C8" t="n">
-        <v>56.6</v>
+        <v>56.1</v>
       </c>
       <c r="D8" t="n">
-        <v>56.6</v>
+        <v>56.1</v>
       </c>
       <c r="E8" t="n">
-        <v>56.6</v>
+        <v>54.8</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>10984.635</v>
       </c>
       <c r="G8" t="n">
-        <v>114827.41522375</v>
+        <v>129383.4015</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="C9" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="D9" t="n">
-        <v>55.9</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="F9" t="n">
-        <v>5200</v>
+        <v>12471.6507</v>
       </c>
       <c r="G9" t="n">
-        <v>109627.41522375</v>
+        <v>116911.7508</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C10" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D10" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E10" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F10" t="n">
-        <v>3690.358</v>
+        <v>3614.395</v>
       </c>
       <c r="G10" t="n">
-        <v>105937.05722375</v>
+        <v>120526.1458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C11" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E11" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F11" t="n">
-        <v>10304.061</v>
+        <v>9195.046899999999</v>
       </c>
       <c r="G11" t="n">
-        <v>105937.05722375</v>
+        <v>120526.1458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C12" t="n">
-        <v>55.6</v>
+        <v>54.8</v>
       </c>
       <c r="D12" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E12" t="n">
-        <v>55.6</v>
+        <v>54.8</v>
       </c>
       <c r="F12" t="n">
-        <v>1739.537</v>
+        <v>17965.8528</v>
       </c>
       <c r="G12" t="n">
-        <v>105937.05722375</v>
+        <v>102560.293</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="C13" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="E13" t="n">
-        <v>55.6</v>
+        <v>54.6</v>
       </c>
       <c r="F13" t="n">
-        <v>11635.1937</v>
+        <v>2768.6902</v>
       </c>
       <c r="G13" t="n">
-        <v>105937.05722375</v>
+        <v>99791.60280000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="C14" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="D14" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="E14" t="n">
-        <v>55.3</v>
+        <v>54.6</v>
       </c>
       <c r="F14" t="n">
-        <v>822.7846</v>
+        <v>11800</v>
       </c>
       <c r="G14" t="n">
-        <v>105114.27262375</v>
+        <v>99791.60280000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="C15" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4</v>
+        <v>55.8</v>
       </c>
       <c r="E15" t="n">
-        <v>56.4</v>
+        <v>54.6</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6843</v>
+        <v>6709.5992</v>
       </c>
       <c r="G15" t="n">
-        <v>105460.95692375</v>
+        <v>99791.60280000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>56.4</v>
+        <v>54.5</v>
       </c>
       <c r="C16" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="D16" t="n">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="E16" t="n">
-        <v>56.3</v>
+        <v>54.5</v>
       </c>
       <c r="F16" t="n">
-        <v>191.1003</v>
+        <v>2881.8974009</v>
       </c>
       <c r="G16" t="n">
-        <v>105269.85662375</v>
+        <v>102673.5002009</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="C17" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="D17" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="E17" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F17" t="n">
-        <v>595.7576</v>
+        <v>8992.805700000001</v>
       </c>
       <c r="G17" t="n">
-        <v>104674.09902375</v>
+        <v>111666.3059009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="C18" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="D18" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="E18" t="n">
-        <v>55.9</v>
+        <v>55.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2849.461</v>
+        <v>3595.77582285</v>
       </c>
       <c r="G18" t="n">
-        <v>107523.56002375</v>
+        <v>115262.08172375</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C19" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D19" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E19" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F19" t="n">
-        <v>35595.1026</v>
+        <v>6898.3812</v>
       </c>
       <c r="G19" t="n">
-        <v>71928.45742374998</v>
+        <v>108363.70052375</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="C20" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D20" t="n">
-        <v>56.9</v>
+        <v>55.6</v>
       </c>
       <c r="E20" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="F20" t="n">
-        <v>46399.1645</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>71928.45742374998</v>
+        <v>108364.70052375</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="C21" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D21" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="E21" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="F21" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G21" t="n">
-        <v>73928.45742374998</v>
+        <v>106365.70052375</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="C22" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="D22" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="E22" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="F22" t="n">
-        <v>1760.44</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>75688.89742374998</v>
+        <v>106366.70052375</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="C23" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="D23" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="E23" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8171</v>
+        <v>1420.1989</v>
       </c>
       <c r="G23" t="n">
-        <v>75268.08032374998</v>
+        <v>104946.50162375</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
       <c r="C24" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="D24" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
       <c r="E24" t="n">
-        <v>56.2</v>
+        <v>55.1</v>
       </c>
       <c r="F24" t="n">
-        <v>8133.1114</v>
+        <v>838.9999</v>
       </c>
       <c r="G24" t="n">
-        <v>83401.19172374997</v>
+        <v>104946.50162375</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C25" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="D25" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="E25" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="F25" t="n">
-        <v>161.6102</v>
+        <v>788</v>
       </c>
       <c r="G25" t="n">
-        <v>83401.19172374997</v>
+        <v>104946.50162375</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="C26" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
       <c r="D26" t="n">
-        <v>56.8</v>
+        <v>55.1</v>
       </c>
       <c r="E26" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="F26" t="n">
-        <v>7658.0832</v>
+        <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>91059.27492374997</v>
+        <v>104946.50162375</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="C27" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="D27" t="n">
-        <v>56.8</v>
+        <v>55.6</v>
       </c>
       <c r="E27" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="F27" t="n">
-        <v>3400</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>87659.27492374997</v>
+        <v>104947.50162375</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="C28" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="D28" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>55.1</v>
       </c>
       <c r="F28" t="n">
-        <v>1685.9751</v>
+        <v>60305.8642</v>
       </c>
       <c r="G28" t="n">
-        <v>85973.29982374997</v>
+        <v>44641.63742374999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>56.8</v>
+        <v>55.2</v>
       </c>
       <c r="C29" t="n">
-        <v>57</v>
+        <v>55.7</v>
       </c>
       <c r="D29" t="n">
-        <v>57</v>
+        <v>55.7</v>
       </c>
       <c r="E29" t="n">
-        <v>56.7</v>
+        <v>55.2</v>
       </c>
       <c r="F29" t="n">
-        <v>177100.2339</v>
+        <v>7043.1603</v>
       </c>
       <c r="G29" t="n">
-        <v>263073.53372375</v>
+        <v>51684.79772374999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57</v>
+        <v>55.7</v>
       </c>
       <c r="C30" t="n">
-        <v>56.6</v>
+        <v>55.9</v>
       </c>
       <c r="D30" t="n">
-        <v>57.1</v>
+        <v>55.9</v>
       </c>
       <c r="E30" t="n">
-        <v>56.6</v>
+        <v>55.7</v>
       </c>
       <c r="F30" t="n">
-        <v>31064.4137</v>
+        <v>2916</v>
       </c>
       <c r="G30" t="n">
-        <v>232009.12002375</v>
+        <v>54600.79772374999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.6</v>
+        <v>55.9</v>
       </c>
       <c r="C31" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="D31" t="n">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="E31" t="n">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="F31" t="n">
-        <v>10504.3324</v>
+        <v>15400</v>
       </c>
       <c r="G31" t="n">
-        <v>221504.78762375</v>
+        <v>70000.79772374999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="C32" t="n">
-        <v>56</v>
+        <v>56.7</v>
       </c>
       <c r="D32" t="n">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="E32" t="n">
-        <v>56</v>
+        <v>56.3</v>
       </c>
       <c r="F32" t="n">
-        <v>8954.009099999999</v>
+        <v>62990.8509</v>
       </c>
       <c r="G32" t="n">
-        <v>230458.79672375</v>
+        <v>132991.64862375</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="C33" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="D33" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="E33" t="n">
-        <v>56</v>
+        <v>56.8</v>
       </c>
       <c r="F33" t="n">
-        <v>1821.317</v>
+        <v>44736.5506</v>
       </c>
       <c r="G33" t="n">
-        <v>230458.79672375</v>
+        <v>177728.19922375</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="C34" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D34" t="n">
-        <v>56</v>
+        <v>56.9</v>
       </c>
       <c r="E34" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="F34" t="n">
-        <v>9760.6603</v>
+        <v>54237.0773</v>
       </c>
       <c r="G34" t="n">
-        <v>230458.79672375</v>
+        <v>123491.12192375</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="C35" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="D35" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="E35" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="F35" t="n">
-        <v>7380.2754</v>
+        <v>1590</v>
       </c>
       <c r="G35" t="n">
-        <v>230458.79672375</v>
+        <v>125081.12192375</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C36" t="n">
         <v>55.8</v>
       </c>
-      <c r="C36" t="n">
-        <v>55.6</v>
-      </c>
       <c r="D36" t="n">
-        <v>55.9</v>
+        <v>56.9</v>
       </c>
       <c r="E36" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="F36" t="n">
-        <v>9227.3069</v>
+        <v>10254.7067</v>
       </c>
       <c r="G36" t="n">
-        <v>221231.48982375</v>
+        <v>114826.41522375</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="C37" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="D37" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="E37" t="n">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="F37" t="n">
-        <v>4572.192</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>225803.68182375</v>
+        <v>114827.41522375</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>55.9</v>
       </c>
       <c r="C38" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="D38" t="n">
         <v>55.9</v>
       </c>
       <c r="E38" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="F38" t="n">
-        <v>15428.8634</v>
+        <v>5200</v>
       </c>
       <c r="G38" t="n">
-        <v>225803.68182375</v>
+        <v>109627.41522375</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="C39" t="n">
         <v>55.6</v>
       </c>
       <c r="D39" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="E39" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F39" t="n">
-        <v>17288</v>
+        <v>3690.358</v>
       </c>
       <c r="G39" t="n">
-        <v>208515.68182375</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="C40" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
       <c r="D40" t="n">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="E40" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="F40" t="n">
-        <v>34132.0795</v>
+        <v>10304.061</v>
       </c>
       <c r="G40" t="n">
-        <v>242647.76132375</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="C41" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="D41" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E41" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F41" t="n">
-        <v>3852</v>
+        <v>1739.537</v>
       </c>
       <c r="G41" t="n">
-        <v>238795.76132375</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="C42" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="D42" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="E42" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="F42" t="n">
-        <v>843.14095373</v>
+        <v>11635.1937</v>
       </c>
       <c r="G42" t="n">
-        <v>239638.90227748</v>
+        <v>105937.05722375</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="C43" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="D43" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="E43" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1695.2818</v>
+        <v>822.7846</v>
       </c>
       <c r="G43" t="n">
-        <v>237943.62047748</v>
+        <v>105114.27262375</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="C44" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="D44" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="E44" t="n">
-        <v>55.7</v>
+        <v>56.4</v>
       </c>
       <c r="F44" t="n">
-        <v>427.8462</v>
+        <v>346.6843</v>
       </c>
       <c r="G44" t="n">
-        <v>237515.77427748</v>
+        <v>105460.95692375</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="C45" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="D45" t="n">
-        <v>55.8</v>
+        <v>56.4</v>
       </c>
       <c r="E45" t="n">
-        <v>55.8</v>
+        <v>56.3</v>
       </c>
       <c r="F45" t="n">
-        <v>26953.3213</v>
+        <v>191.1003</v>
       </c>
       <c r="G45" t="n">
-        <v>264469.09557748</v>
+        <v>105269.85662375</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="C46" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="D46" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="E46" t="n">
-        <v>55.7</v>
+        <v>55.3</v>
       </c>
       <c r="F46" t="n">
-        <v>26077.4642</v>
+        <v>595.7576</v>
       </c>
       <c r="G46" t="n">
-        <v>238391.63137748</v>
+        <v>104674.09902375</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="C47" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="D47" t="n">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="E47" t="n">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="F47" t="n">
-        <v>11751</v>
+        <v>2849.461</v>
       </c>
       <c r="G47" t="n">
-        <v>226640.63137748</v>
+        <v>107523.56002375</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C48" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D48" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E48" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F48" t="n">
-        <v>592</v>
+        <v>35595.1026</v>
       </c>
       <c r="G48" t="n">
-        <v>226640.63137748</v>
+        <v>71928.45742374998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C49" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="D49" t="n">
-        <v>55.5</v>
+        <v>56.9</v>
       </c>
       <c r="E49" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F49" t="n">
-        <v>9456.0978</v>
+        <v>46399.1645</v>
       </c>
       <c r="G49" t="n">
-        <v>226640.63137748</v>
+        <v>71928.45742374998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="C50" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="D50" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="E50" t="n">
-        <v>56.3</v>
+        <v>55.5</v>
       </c>
       <c r="F50" t="n">
-        <v>1733.1022</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="n">
-        <v>228373.73357748</v>
+        <v>73928.45742374998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="C51" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="D51" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="E51" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F51" t="n">
-        <v>19800</v>
+        <v>1760.44</v>
       </c>
       <c r="G51" t="n">
-        <v>208573.73357748</v>
+        <v>75688.89742374998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="C52" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="D52" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="E52" t="n">
-        <v>55.4</v>
+        <v>56.1</v>
       </c>
       <c r="F52" t="n">
-        <v>11109.5152</v>
+        <v>420.8171</v>
       </c>
       <c r="G52" t="n">
-        <v>197464.21837748</v>
+        <v>75268.08032374998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C53" t="n">
-        <v>55.1</v>
+        <v>56.7</v>
       </c>
       <c r="D53" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="E53" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="F53" t="n">
-        <v>5101.9999</v>
+        <v>8133.1114</v>
       </c>
       <c r="G53" t="n">
-        <v>192362.21847748</v>
+        <v>83401.19172374997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="C54" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="D54" t="n">
-        <v>55.6</v>
+        <v>56.7</v>
       </c>
       <c r="E54" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F54" t="n">
-        <v>6326.8076</v>
+        <v>161.6102</v>
       </c>
       <c r="G54" t="n">
-        <v>198689.02607748</v>
+        <v>83401.19172374997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="C55" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="D55" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="E55" t="n">
-        <v>55.4</v>
+        <v>56.7</v>
       </c>
       <c r="F55" t="n">
-        <v>5500</v>
+        <v>7658.0832</v>
       </c>
       <c r="G55" t="n">
-        <v>193189.02607748</v>
+        <v>91059.27492374997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="C56" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="D56" t="n">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="E56" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="G56" t="n">
-        <v>191189.02607748</v>
+        <v>87659.27492374997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C57" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="E57" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="F57" t="n">
-        <v>2059.305</v>
+        <v>1685.9751</v>
       </c>
       <c r="G57" t="n">
-        <v>191189.02607748</v>
+        <v>85973.29982374997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>55.5</v>
+        <v>56.8</v>
       </c>
       <c r="C58" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>55.5</v>
+        <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>55.5</v>
+        <v>56.7</v>
       </c>
       <c r="F58" t="n">
-        <v>6329.5988</v>
+        <v>177100.2339</v>
       </c>
       <c r="G58" t="n">
-        <v>197518.62487748</v>
+        <v>263073.53372375</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>55.4</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
       <c r="D59" t="n">
-        <v>55.4</v>
+        <v>57.1</v>
       </c>
       <c r="E59" t="n">
-        <v>55.2</v>
+        <v>56.6</v>
       </c>
       <c r="F59" t="n">
-        <v>5890.6281</v>
+        <v>31064.4137</v>
       </c>
       <c r="G59" t="n">
-        <v>191627.99677748</v>
+        <v>232009.12002375</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
       <c r="C60" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="D60" t="n">
-        <v>55.4</v>
+        <v>56.6</v>
       </c>
       <c r="E60" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F60" t="n">
-        <v>997.5</v>
+        <v>10504.3324</v>
       </c>
       <c r="G60" t="n">
-        <v>192625.49677748</v>
+        <v>221504.78762375</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>55.4</v>
+        <v>56.4</v>
       </c>
       <c r="C61" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="D61" t="n">
-        <v>55.4</v>
+        <v>56.8</v>
       </c>
       <c r="E61" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>8954.009099999999</v>
       </c>
       <c r="G61" t="n">
-        <v>192625.49677748</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="C62" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D62" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="E62" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F62" t="n">
-        <v>9474.314200000001</v>
+        <v>1821.317</v>
       </c>
       <c r="G62" t="n">
-        <v>183151.18257748</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="C63" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D63" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E63" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F63" t="n">
-        <v>58436.3774</v>
+        <v>9760.6603</v>
       </c>
       <c r="G63" t="n">
-        <v>183151.18257748</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="C64" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="D64" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="E64" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
       <c r="F64" t="n">
-        <v>32705.9846</v>
+        <v>7380.2754</v>
       </c>
       <c r="G64" t="n">
-        <v>183151.18257748</v>
+        <v>230458.79672375</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C65" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="D65" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="E65" t="n">
-        <v>55</v>
+        <v>55.6</v>
       </c>
       <c r="F65" t="n">
-        <v>31739.2965</v>
+        <v>9227.3069</v>
       </c>
       <c r="G65" t="n">
-        <v>151411.88607748</v>
+        <v>221231.48982375</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="D66" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="E66" t="n">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="F66" t="n">
-        <v>14570.426</v>
+        <v>4572.192</v>
       </c>
       <c r="G66" t="n">
-        <v>151411.88607748</v>
+        <v>225803.68182375</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="C67" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="D67" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="E67" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="F67" t="n">
-        <v>829.49</v>
+        <v>15428.8634</v>
       </c>
       <c r="G67" t="n">
-        <v>152241.37607748</v>
+        <v>225803.68182375</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>55.2</v>
+        <v>56.4</v>
       </c>
       <c r="C68" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="D68" t="n">
-        <v>55.2</v>
+        <v>56.4</v>
       </c>
       <c r="E68" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1043.5079</v>
+        <v>17288</v>
       </c>
       <c r="G68" t="n">
-        <v>151197.86817748</v>
+        <v>208515.68182375</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
       <c r="C69" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
       <c r="D69" t="n">
-        <v>55.3</v>
+        <v>56.4</v>
       </c>
       <c r="E69" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="F69" t="n">
-        <v>503.9517</v>
+        <v>34132.0795</v>
       </c>
       <c r="G69" t="n">
-        <v>151701.81987748</v>
+        <v>242647.76132375</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="C70" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="D70" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="E70" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F70" t="n">
-        <v>8756.3572</v>
+        <v>3852</v>
       </c>
       <c r="G70" t="n">
-        <v>142945.46267748</v>
+        <v>238795.76132375</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="C71" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="D71" t="n">
-        <v>55.1</v>
+        <v>56.2</v>
       </c>
       <c r="E71" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2186.0536</v>
+        <v>843.14095373</v>
       </c>
       <c r="G71" t="n">
-        <v>142945.46267748</v>
+        <v>239638.90227748</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="C72" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="D72" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="E72" t="n">
-        <v>55</v>
+        <v>55.8</v>
       </c>
       <c r="F72" t="n">
-        <v>7638.938</v>
+        <v>1695.2818</v>
       </c>
       <c r="G72" t="n">
-        <v>135306.52467748</v>
+        <v>237943.62047748</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="C73" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="D73" t="n">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="E73" t="n">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="F73" t="n">
-        <v>1200</v>
+        <v>427.8462</v>
       </c>
       <c r="G73" t="n">
-        <v>136506.52467748</v>
+        <v>237515.77427748</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="C74" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="D74" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="E74" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>26953.3213</v>
       </c>
       <c r="G74" t="n">
-        <v>136496.52467748</v>
+        <v>264469.09557748</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="C75" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="D75" t="n">
-        <v>55.3</v>
+        <v>55.8</v>
       </c>
       <c r="E75" t="n">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="F75" t="n">
-        <v>12331.2752</v>
+        <v>26077.4642</v>
       </c>
       <c r="G75" t="n">
-        <v>124165.24947748</v>
+        <v>238391.63137748</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55.2</v>
+        <v>55.7</v>
       </c>
       <c r="C76" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D76" t="n">
-        <v>55.2</v>
+        <v>55.7</v>
       </c>
       <c r="E76" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>11751</v>
       </c>
       <c r="G76" t="n">
-        <v>123165.24947748</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="C77" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D77" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E77" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F77" t="n">
-        <v>16056.1506</v>
+        <v>592</v>
       </c>
       <c r="G77" t="n">
-        <v>107109.09887748</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="C78" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="D78" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="E78" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="F78" t="n">
-        <v>264.8929</v>
+        <v>9456.0978</v>
       </c>
       <c r="G78" t="n">
-        <v>106844.20597748</v>
+        <v>226640.63137748</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="C79" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="D79" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="E79" t="n">
-        <v>55.1</v>
+        <v>56.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>1733.1022</v>
       </c>
       <c r="G79" t="n">
-        <v>107844.20597748</v>
+        <v>228373.73357748</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="C80" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D80" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="E80" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F80" t="n">
-        <v>595.9016</v>
+        <v>19800</v>
       </c>
       <c r="G80" t="n">
-        <v>107844.20597748</v>
+        <v>208573.73357748</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C81" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D81" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="E81" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F81" t="n">
-        <v>29.1152</v>
+        <v>11109.5152</v>
       </c>
       <c r="G81" t="n">
-        <v>107844.20597748</v>
+        <v>197464.21837748</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C82" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D82" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="E82" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F82" t="n">
-        <v>4015.4965</v>
+        <v>5101.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>111859.70247748</v>
+        <v>192362.21847748</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="C83" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="D83" t="n">
-        <v>55.2</v>
+        <v>55.6</v>
       </c>
       <c r="E83" t="n">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="F83" t="n">
-        <v>11288.914</v>
+        <v>6326.8076</v>
       </c>
       <c r="G83" t="n">
-        <v>100570.78847748</v>
+        <v>198689.02607748</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="D84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="E84" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F84" t="n">
-        <v>17976.184</v>
+        <v>5500</v>
       </c>
       <c r="G84" t="n">
-        <v>100570.78847748</v>
+        <v>193189.02607748</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="C85" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D85" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E85" t="n">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="F85" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="n">
-        <v>101970.78847748</v>
+        <v>191189.02607748</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C86" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D86" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E86" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="F86" t="n">
-        <v>5952.0791</v>
+        <v>2059.305</v>
       </c>
       <c r="G86" t="n">
-        <v>101970.78847748</v>
+        <v>191189.02607748</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="C87" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="D87" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="E87" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1696.9999</v>
+        <v>6329.5988</v>
       </c>
       <c r="G87" t="n">
-        <v>101970.78847748</v>
+        <v>197518.62487748</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="C88" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="D88" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="E88" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="F88" t="n">
-        <v>8909.1312</v>
+        <v>5890.6281</v>
       </c>
       <c r="G88" t="n">
-        <v>101970.78847748</v>
+        <v>191627.99677748</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="C89" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="D89" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="E89" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
       <c r="F89" t="n">
-        <v>10923.1681</v>
+        <v>997.5</v>
       </c>
       <c r="G89" t="n">
-        <v>101970.78847748</v>
+        <v>192625.49677748</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="C90" t="n">
         <v>55.4</v>
       </c>
       <c r="D90" t="n">
-        <v>55.7</v>
+        <v>55.4</v>
       </c>
       <c r="E90" t="n">
         <v>55.4</v>
       </c>
       <c r="F90" t="n">
-        <v>48701.539</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="n">
-        <v>53269.24947748001</v>
+        <v>192625.49677748</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C91" t="n">
-        <v>55.5</v>
+        <v>55.1</v>
       </c>
       <c r="D91" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E91" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F91" t="n">
-        <v>29027.0672</v>
+        <v>9474.314200000001</v>
       </c>
       <c r="G91" t="n">
-        <v>82296.31667748</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C92" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D92" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="E92" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F92" t="n">
-        <v>5918.1336</v>
+        <v>58436.3774</v>
       </c>
       <c r="G92" t="n">
-        <v>76378.18307748</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="C93" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D93" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="E93" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F93" t="n">
-        <v>1841.2532</v>
+        <v>32705.9846</v>
       </c>
       <c r="G93" t="n">
-        <v>78219.43627748001</v>
+        <v>183151.18257748</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C94" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E94" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F94" t="n">
-        <v>4241.0328</v>
+        <v>31739.2965</v>
       </c>
       <c r="G94" t="n">
-        <v>82460.46907748001</v>
+        <v>151411.88607748</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="C95" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="D95" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="E95" t="n">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>14570.426</v>
       </c>
       <c r="G95" t="n">
-        <v>82560.46907748001</v>
+        <v>151411.88607748</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C96" t="n">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="D96" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E96" t="n">
-        <v>56</v>
+        <v>55.3</v>
       </c>
       <c r="F96" t="n">
-        <v>1396.4997</v>
+        <v>829.49</v>
       </c>
       <c r="G96" t="n">
-        <v>81163.96937748001</v>
+        <v>152241.37607748</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="C97" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="D97" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="E97" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="F97" t="n">
-        <v>37308.8985</v>
+        <v>1043.5079</v>
       </c>
       <c r="G97" t="n">
-        <v>81163.96937748001</v>
+        <v>151197.86817748</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="C98" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="D98" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="E98" t="n">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="F98" t="n">
-        <v>2000</v>
+        <v>503.9517</v>
       </c>
       <c r="G98" t="n">
-        <v>83163.96937748001</v>
+        <v>151701.81987748</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="C99" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="D99" t="n">
-        <v>56.3</v>
+        <v>55.2</v>
       </c>
       <c r="E99" t="n">
-        <v>56.3</v>
+        <v>55.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1553.9989</v>
+        <v>8756.3572</v>
       </c>
       <c r="G99" t="n">
-        <v>84717.96827748002</v>
+        <v>142945.46267748</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="C100" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="D100" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="E100" t="n">
-        <v>56.5</v>
+        <v>55.1</v>
       </c>
       <c r="F100" t="n">
-        <v>7553.9008</v>
+        <v>2186.0536</v>
       </c>
       <c r="G100" t="n">
-        <v>92271.86907748002</v>
+        <v>142945.46267748</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="C101" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="D101" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="E101" t="n">
-        <v>56.6</v>
+        <v>55</v>
       </c>
       <c r="F101" t="n">
-        <v>1793.0211</v>
+        <v>7638.938</v>
       </c>
       <c r="G101" t="n">
-        <v>94064.89017748002</v>
+        <v>135306.52467748</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="C102" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="D102" t="n">
-        <v>56.7</v>
+        <v>55.9</v>
       </c>
       <c r="E102" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="F102" t="n">
-        <v>8870.425999999999</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="n">
-        <v>102935.31617748</v>
+        <v>136506.52467748</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>56.8</v>
+        <v>55.4</v>
       </c>
       <c r="C103" t="n">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="D103" t="n">
-        <v>56.9</v>
+        <v>55.4</v>
       </c>
       <c r="E103" t="n">
-        <v>56.8</v>
+        <v>55.4</v>
       </c>
       <c r="F103" t="n">
-        <v>24912.3374</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>127847.65357748</v>
+        <v>136496.52467748</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>56.9</v>
+        <v>55.3</v>
       </c>
       <c r="C104" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="D104" t="n">
-        <v>57</v>
+        <v>55.3</v>
       </c>
       <c r="E104" t="n">
-        <v>56.4</v>
+        <v>55.3</v>
       </c>
       <c r="F104" t="n">
-        <v>2284</v>
+        <v>12331.2752</v>
       </c>
       <c r="G104" t="n">
-        <v>125563.65357748</v>
+        <v>124165.24947748</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="C105" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="D105" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="E105" t="n">
-        <v>56.1</v>
+        <v>55.2</v>
       </c>
       <c r="F105" t="n">
-        <v>158.2702</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>125405.38337748</v>
+        <v>123165.24947748</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="C106" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="D106" t="n">
-        <v>55.9</v>
+        <v>55.2</v>
       </c>
       <c r="E106" t="n">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="F106" t="n">
-        <v>16637.6234</v>
+        <v>16056.1506</v>
       </c>
       <c r="G106" t="n">
-        <v>108767.75997748</v>
+        <v>107109.09887748</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="C107" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="D107" t="n">
-        <v>55.7</v>
+        <v>55</v>
       </c>
       <c r="E107" t="n">
-        <v>55.6</v>
+        <v>55</v>
       </c>
       <c r="F107" t="n">
-        <v>16637.6236</v>
+        <v>264.8929</v>
       </c>
       <c r="G107" t="n">
-        <v>92130.13637748003</v>
+        <v>106844.20597748</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C108" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D108" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E108" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F108" t="n">
-        <v>195.4466</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>92130.13637748003</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C109" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D109" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E109" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F109" t="n">
-        <v>2063.2908</v>
+        <v>595.9016</v>
       </c>
       <c r="G109" t="n">
-        <v>92130.13637748003</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="C110" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="D110" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="E110" t="n">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="F110" t="n">
-        <v>311.492</v>
+        <v>29.1152</v>
       </c>
       <c r="G110" t="n">
-        <v>92130.13637748003</v>
+        <v>107844.20597748</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="C111" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="D111" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="E111" t="n">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="F111" t="n">
-        <v>181.8181</v>
+        <v>4015.4965</v>
       </c>
       <c r="G111" t="n">
-        <v>92130.13637748003</v>
+        <v>111859.70247748</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="C112" t="n">
-        <v>55.7</v>
+        <v>55.1</v>
       </c>
       <c r="D112" t="n">
-        <v>55.7</v>
+        <v>55.2</v>
       </c>
       <c r="E112" t="n">
-        <v>55</v>
+        <v>55.1</v>
       </c>
       <c r="F112" t="n">
-        <v>46373.6076</v>
+        <v>11288.914</v>
       </c>
       <c r="G112" t="n">
-        <v>138503.74397748</v>
+        <v>100570.78847748</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C113" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D113" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="E113" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F113" t="n">
-        <v>2531.084</v>
+        <v>17976.184</v>
       </c>
       <c r="G113" t="n">
-        <v>135972.65997748</v>
+        <v>100570.78847748</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="C114" t="n">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="D114" t="n">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="E114" t="n">
-        <v>55.1</v>
+        <v>55.9</v>
       </c>
       <c r="F114" t="n">
-        <v>4170</v>
+        <v>1400</v>
       </c>
       <c r="G114" t="n">
-        <v>131802.65997748</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="C115" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="D115" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E115" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="F115" t="n">
-        <v>80670.6465</v>
+        <v>5952.0791</v>
       </c>
       <c r="G115" t="n">
-        <v>51132.01347748004</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="C116" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D116" t="n">
-        <v>55</v>
+        <v>56.1</v>
       </c>
       <c r="E116" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="F116" t="n">
-        <v>6351.0223</v>
+        <v>1696.9999</v>
       </c>
       <c r="G116" t="n">
-        <v>44780.99117748004</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="C117" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="D117" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="E117" t="n">
-        <v>54.9</v>
+        <v>56.1</v>
       </c>
       <c r="F117" t="n">
-        <v>1855.35</v>
+        <v>8909.1312</v>
       </c>
       <c r="G117" t="n">
-        <v>44780.99117748004</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="C118" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="D118" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="E118" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="F118" t="n">
-        <v>251.6483</v>
+        <v>10923.1681</v>
       </c>
       <c r="G118" t="n">
-        <v>44529.34287748004</v>
+        <v>101970.78847748</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="C119" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="D119" t="n">
-        <v>54.9</v>
+        <v>55.7</v>
       </c>
       <c r="E119" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F119" t="n">
-        <v>750</v>
+        <v>48701.539</v>
       </c>
       <c r="G119" t="n">
-        <v>45279.34287748004</v>
+        <v>53269.24947748001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="C120" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="D120" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="E120" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="F120" t="n">
-        <v>1056.733</v>
+        <v>29027.0672</v>
       </c>
       <c r="G120" t="n">
-        <v>45279.34287748004</v>
+        <v>82296.31667748</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="C121" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="D121" t="n">
-        <v>54.9</v>
+        <v>55.4</v>
       </c>
       <c r="E121" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="F121" t="n">
-        <v>5692.8917</v>
+        <v>5918.1336</v>
       </c>
       <c r="G121" t="n">
-        <v>39586.45117748004</v>
+        <v>76378.18307748</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="C122" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="D122" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="E122" t="n">
-        <v>54.7</v>
+        <v>55.9</v>
       </c>
       <c r="F122" t="n">
-        <v>4100</v>
+        <v>1841.2532</v>
       </c>
       <c r="G122" t="n">
-        <v>39586.45117748004</v>
+        <v>78219.43627748001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,35 +4794,31 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="C123" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="D123" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="E123" t="n">
-        <v>54.8</v>
+        <v>56</v>
       </c>
       <c r="F123" t="n">
-        <v>1695.9999</v>
+        <v>4241.0328</v>
       </c>
       <c r="G123" t="n">
-        <v>41282.45107748004</v>
+        <v>82460.46907748001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="K123" t="n">
-        <v>54.7</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
@@ -4834,678 +4830,1706 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="n">
+        <v>82560.46907748001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1396.4997</v>
+      </c>
+      <c r="G125" t="n">
+        <v>81163.96937748001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>56</v>
+      </c>
+      <c r="C126" t="n">
+        <v>56</v>
+      </c>
+      <c r="D126" t="n">
+        <v>56</v>
+      </c>
+      <c r="E126" t="n">
+        <v>56</v>
+      </c>
+      <c r="F126" t="n">
+        <v>37308.8985</v>
+      </c>
+      <c r="G126" t="n">
+        <v>81163.96937748001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>83163.96937748001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1553.9989</v>
+      </c>
+      <c r="G128" t="n">
+        <v>84717.96827748002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7553.9008</v>
+      </c>
+      <c r="G129" t="n">
+        <v>92271.86907748002</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1793.0211</v>
+      </c>
+      <c r="G130" t="n">
+        <v>94064.89017748002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>8870.425999999999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>102935.31617748</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>24912.3374</v>
+      </c>
+      <c r="G132" t="n">
+        <v>127847.65357748</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>57</v>
+      </c>
+      <c r="E133" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2284</v>
+      </c>
+      <c r="G133" t="n">
+        <v>125563.65357748</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>158.2702</v>
+      </c>
+      <c r="G134" t="n">
+        <v>125405.38337748</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16637.6234</v>
+      </c>
+      <c r="G135" t="n">
+        <v>108767.75997748</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16637.6236</v>
+      </c>
+      <c r="G136" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C137" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D137" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>195.4466</v>
+      </c>
+      <c r="G137" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2063.2908</v>
+      </c>
+      <c r="G138" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>311.492</v>
+      </c>
+      <c r="G139" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>181.8181</v>
+      </c>
+      <c r="G140" t="n">
+        <v>92130.13637748003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>55</v>
+      </c>
+      <c r="F141" t="n">
+        <v>46373.6076</v>
+      </c>
+      <c r="G141" t="n">
+        <v>138503.74397748</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2531.084</v>
+      </c>
+      <c r="G142" t="n">
+        <v>135972.65997748</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G143" t="n">
+        <v>131802.65997748</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>55</v>
+      </c>
+      <c r="C144" t="n">
+        <v>55</v>
+      </c>
+      <c r="D144" t="n">
+        <v>55</v>
+      </c>
+      <c r="E144" t="n">
+        <v>55</v>
+      </c>
+      <c r="F144" t="n">
+        <v>80670.6465</v>
+      </c>
+      <c r="G144" t="n">
+        <v>51132.01347748004</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>55</v>
+      </c>
+      <c r="C145" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>55</v>
+      </c>
+      <c r="E145" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6351.0223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>44780.99117748004</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1855.35</v>
+      </c>
+      <c r="G146" t="n">
+        <v>44780.99117748004</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
         <v>54.8</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C147" t="n">
         <v>54.8</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D147" t="n">
         <v>54.8</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E147" t="n">
         <v>54.8</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F147" t="n">
+        <v>251.6483</v>
+      </c>
+      <c r="G147" t="n">
+        <v>44529.34287748004</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C148" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F148" t="n">
+        <v>750</v>
+      </c>
+      <c r="G148" t="n">
+        <v>45279.34287748004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1056.733</v>
+      </c>
+      <c r="G149" t="n">
+        <v>45279.34287748004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5692.8917</v>
+      </c>
+      <c r="G150" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1695.9999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>41282.45107748004</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F153" t="n">
         <v>2812.5</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G153" t="n">
         <v>41282.45107748004</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
         <v>54.8</v>
       </c>
-      <c r="K124" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="C154" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18900</v>
+      </c>
+      <c r="G154" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>652.9592</v>
+      </c>
+      <c r="G155" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8214.3392</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>54.8</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2460.2304</v>
+      </c>
+      <c r="G157" t="n">
+        <v>24842.68147748004</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
         <v>54.6</v>
       </c>
-      <c r="D125" t="n">
+      <c r="K157" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>26842.68147748004</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
         <v>54.8</v>
       </c>
-      <c r="E125" t="n">
+      <c r="K158" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C159" t="n">
         <v>54.6</v>
       </c>
-      <c r="F125" t="n">
-        <v>18900</v>
-      </c>
-      <c r="G125" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
+      <c r="D159" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>21217.0281</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5625.653377480045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="K159" t="n">
         <v>54.8</v>
       </c>
-      <c r="K125" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>652.9592</v>
-      </c>
-      <c r="G126" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K126" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>56</v>
+      </c>
+      <c r="D160" t="n">
+        <v>56</v>
+      </c>
+      <c r="E160" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10200</v>
+      </c>
+      <c r="G160" t="n">
+        <v>15825.65337748004</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>8214.3392</v>
-      </c>
-      <c r="G127" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>57</v>
+      </c>
+      <c r="D161" t="n">
+        <v>57</v>
+      </c>
+      <c r="E161" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>62900.099</v>
+      </c>
+      <c r="G161" t="n">
+        <v>78725.75237748005</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
         <v>54.8</v>
       </c>
-      <c r="C128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>2460.2304</v>
-      </c>
-      <c r="G128" t="n">
-        <v>24842.68147748004</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>26842.68147748004</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17345.2434</v>
+      </c>
+      <c r="G163" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E130" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>21217.0281</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5625.653377480045</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>29949.5061</v>
+      </c>
+      <c r="G164" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>56</v>
-      </c>
-      <c r="D131" t="n">
-        <v>56</v>
-      </c>
-      <c r="E131" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10200</v>
-      </c>
-      <c r="G131" t="n">
-        <v>15825.65337748004</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6012.6531</v>
+      </c>
+      <c r="G165" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>57</v>
-      </c>
-      <c r="D132" t="n">
-        <v>57</v>
-      </c>
-      <c r="E132" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>62900.099</v>
-      </c>
-      <c r="G132" t="n">
-        <v>78725.75237748005</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1485125.3157</v>
+      </c>
+      <c r="G166" t="n">
+        <v>77725.75237748005</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>56.2</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C167" t="n">
         <v>56.2</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D167" t="n">
         <v>56.2</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E167" t="n">
         <v>56.2</v>
       </c>
-      <c r="F133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="F167" t="n">
+        <v>1629428.9901</v>
+      </c>
+      <c r="G167" t="n">
         <v>77725.75237748005</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>56.2</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C168" t="n">
         <v>56.2</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D168" t="n">
         <v>56.2</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E168" t="n">
         <v>56.2</v>
       </c>
-      <c r="F134" t="n">
-        <v>17345.2434</v>
-      </c>
-      <c r="G134" t="n">
+      <c r="F168" t="n">
+        <v>1659492.2556</v>
+      </c>
+      <c r="G168" t="n">
         <v>77725.75237748005</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C135" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>29949.5061</v>
-      </c>
-      <c r="G135" t="n">
-        <v>77725.75237748005</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>6012.6531</v>
-      </c>
-      <c r="G136" t="n">
-        <v>77725.75237748005</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1485125.3157</v>
-      </c>
-      <c r="G137" t="n">
-        <v>77725.75237748005</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1629428.9901</v>
-      </c>
-      <c r="G138" t="n">
-        <v>77725.75237748005</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1659492.2556</v>
-      </c>
-      <c r="G139" t="n">
-        <v>77725.75237748005</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>123491.12192375</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>125081.12192375</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>114826.41522375</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>114827.41522375</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>105937.05722375</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>104674.09902375</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>127847.65357748</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>125405.38337748</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>108767.75997748</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>44529.34287748004</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>39586.45117748004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5434,15 @@
         <v>41282.45107748004</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,22 +5500,15 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6004,26 +5533,15 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6048,26 +5566,15 @@
         <v>24842.68147748004</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K157" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6092,22 +5599,15 @@
         <v>26842.68147748004</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K158" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6132,26 +5632,21 @@
         <v>5625.653377480045</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
         <v>55.3</v>
       </c>
-      <c r="K159" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6178,22 +5673,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6218,24 +5708,19 @@
         <v>78725.75237748005</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6262,22 +5747,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6304,22 +5784,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6346,22 +5821,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6388,22 +5858,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6430,22 +5895,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6472,22 +5932,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6514,24 +5969,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,10 +517,14 @@
         <v>116427.7665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54.7</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -550,11 +554,19 @@
         <v>118398.7665</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,19 @@
         <v>118398.7665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,10 +636,14 @@
         <v>118398.7665</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +673,19 @@
         <v>129383.4015</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +717,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +795,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +834,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +873,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +912,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +951,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +990,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1029,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1068,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1107,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1146,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1185,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1224,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1263,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1341,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1380,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1419,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1458,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1497,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1536,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1575,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1614,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1653,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1689,17 @@
         <v>123491.12192375</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1728,17 @@
         <v>125081.12192375</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1767,17 @@
         <v>114826.41522375</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1806,17 @@
         <v>114827.41522375</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1887,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1965,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2001,17 @@
         <v>105937.05722375</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2043,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2082,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2121,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2157,17 @@
         <v>104674.09902375</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2199,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2238,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2277,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2316,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2355,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2394,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2433,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2472,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2511,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2550,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2589,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2628,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2667,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2823,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2862,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2940,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2979,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3018,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3057,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,13 +3093,19 @@
         <v>238795.76132375</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>1.013248175182482</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -2728,7 +3132,7 @@
         <v>239638.90227748</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3165,7 @@
         <v>237943.62047748</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +3198,7 @@
         <v>237515.77427748</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +3231,7 @@
         <v>264469.09557748</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +3264,7 @@
         <v>238391.63137748</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3297,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3330,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3363,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3396,7 @@
         <v>228373.73357748</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3429,7 @@
         <v>208573.73357748</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3462,7 @@
         <v>197464.21837748</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3495,7 @@
         <v>192362.21847748</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3528,7 @@
         <v>198689.02607748</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3561,7 @@
         <v>193189.02607748</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3388,7 +3792,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3825,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3858,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3891,7 @@
         <v>151411.88607748</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3957,7 @@
         <v>152241.37607748</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3990,7 @@
         <v>151197.86817748</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +4023,7 @@
         <v>151701.81987748</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +4056,7 @@
         <v>142945.46267748</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +4089,7 @@
         <v>142945.46267748</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +4122,7 @@
         <v>135306.52467748</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3784,7 +4188,7 @@
         <v>136496.52467748</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +4221,7 @@
         <v>124165.24947748</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +4287,7 @@
         <v>107109.09887748</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +4320,7 @@
         <v>106844.20597748</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4741,7 +5145,7 @@
         <v>127847.65357748</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +5211,7 @@
         <v>125405.38337748</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5244,7 @@
         <v>108767.75997748</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5236,7 +5640,7 @@
         <v>44529.34287748004</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,10 +5673,14 @@
         <v>45279.34287748004</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J148" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5302,11 +5710,19 @@
         <v>45279.34287748004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J149" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5754,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5370,9 +5792,17 @@
       <c r="H151" t="n">
         <v>1</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J151" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5831,19 @@
         <v>41282.45107748004</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="J152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5436,9 +5874,17 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5913,19 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J154" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5954,19 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J155" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5995,19 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J156" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6036,19 @@
         <v>24842.68147748004</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6077,19 @@
         <v>26842.68147748004</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J158" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,15 +6118,15 @@
         <v>5625.653377480045</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5674,7 +6160,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,10 +6196,12 @@
         <v>78725.75237748005</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5748,7 +6238,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,7 +6277,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5822,7 +6316,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5859,7 +6355,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,7 +6394,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>54.8</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5982,6 +6486,6 @@
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>116427.7665</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>118398.7665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>118398.7665</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,14 +616,10 @@
         <v>118398.7665</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>54.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -673,292 +649,248 @@
         <v>129383.4015</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12471.6507</v>
+      </c>
+      <c r="G9" t="n">
+        <v>116911.7508</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3614.395</v>
+      </c>
+      <c r="G10" t="n">
+        <v>120526.1458</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9195.046899999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>120526.1458</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C12" t="n">
         <v>54.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="D12" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E12" t="n">
         <v>54.8</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="F12" t="n">
+        <v>17965.8528</v>
+      </c>
+      <c r="G12" t="n">
+        <v>102560.293</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2768.6902</v>
+      </c>
+      <c r="G13" t="n">
+        <v>99791.60280000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11800</v>
+      </c>
+      <c r="G14" t="n">
+        <v>99791.60280000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6709.5992</v>
+      </c>
+      <c r="G15" t="n">
+        <v>99791.60280000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>55</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12471.6507</v>
-      </c>
-      <c r="G9" t="n">
-        <v>116911.7508</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3614.395</v>
-      </c>
-      <c r="G10" t="n">
-        <v>120526.1458</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9195.046899999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>120526.1458</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>17965.8528</v>
-      </c>
-      <c r="G12" t="n">
-        <v>102560.293</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2768.6902</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99791.60280000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11800</v>
-      </c>
-      <c r="G14" t="n">
-        <v>99791.60280000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6709.5992</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99791.60280000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -990,9 +922,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1029,9 +959,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1068,9 +996,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1107,9 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1143,12 +1067,10 @@
         <v>108364.70052375</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1185,9 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,9 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1260,12 +1178,10 @@
         <v>104946.50162375</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,9 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,9 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,9 +1292,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1419,9 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,9 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1497,9 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1536,9 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1575,9 +1477,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1614,9 +1514,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1653,9 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,9 +1588,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1731,9 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1770,9 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1809,9 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,9 +1736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,9 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,9 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1965,9 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2004,9 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2043,9 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2082,9 +1958,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,20 +1992,16 @@
         <v>105269.85662375</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -2160,14 +2030,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2199,14 +2063,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2238,14 +2096,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2277,14 +2129,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2316,14 +2162,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2355,14 +2195,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2394,14 +2228,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2433,14 +2261,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2472,14 +2294,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2327,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2550,14 +2360,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2589,14 +2393,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2628,14 +2426,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2459,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2706,14 +2492,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2525,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2784,14 +2558,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2823,14 +2591,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2862,14 +2624,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2901,14 +2657,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2940,14 +2690,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2979,14 +2723,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3018,14 +2756,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3057,14 +2789,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,19 +2819,13 @@
         <v>238795.76132375</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.013248175182482</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
     </row>
@@ -3132,7 +2852,7 @@
         <v>239638.90227748</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3165,7 +2885,7 @@
         <v>237943.62047748</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3198,7 +2918,7 @@
         <v>237515.77427748</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3231,7 +2951,7 @@
         <v>264469.09557748</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3264,7 +2984,7 @@
         <v>238391.63137748</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3297,7 +3017,7 @@
         <v>226640.63137748</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3396,7 +3116,7 @@
         <v>228373.73357748</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3429,7 +3149,7 @@
         <v>208573.73357748</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3462,7 +3182,7 @@
         <v>197464.21837748</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3495,7 +3215,7 @@
         <v>192362.21847748</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3528,7 +3248,7 @@
         <v>198689.02607748</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3561,7 +3281,7 @@
         <v>193189.02607748</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3792,7 +3512,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3825,7 +3545,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3858,7 +3578,7 @@
         <v>183151.18257748</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3891,7 +3611,7 @@
         <v>151411.88607748</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3957,7 +3677,7 @@
         <v>152241.37607748</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3990,7 +3710,7 @@
         <v>151197.86817748</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4023,7 +3743,7 @@
         <v>151701.81987748</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4056,7 +3776,7 @@
         <v>142945.46267748</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4089,7 +3809,7 @@
         <v>142945.46267748</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4122,7 +3842,7 @@
         <v>135306.52467748</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4188,7 +3908,7 @@
         <v>136496.52467748</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4221,7 +3941,7 @@
         <v>124165.24947748</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4287,7 +4007,7 @@
         <v>107109.09887748</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4320,7 +4040,7 @@
         <v>106844.20597748</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5376,7 +5096,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5541,7 +5261,7 @@
         <v>51132.01347748004</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5673,14 +5393,10 @@
         <v>45279.34287748004</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>54.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5710,425 +5426,363 @@
         <v>45279.34287748004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>54.9</v>
       </c>
-      <c r="J149" t="n">
+      <c r="C150" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5692.8917</v>
+      </c>
+      <c r="G150" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G151" t="n">
+        <v>39586.45117748004</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
         <v>54.8</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="C152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1695.9999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>41282.45107748004</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2812.5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>41282.45107748004</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18900</v>
+      </c>
+      <c r="G154" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>652.9592</v>
+      </c>
+      <c r="G155" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="J155" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8214.3392</v>
+      </c>
+      <c r="G156" t="n">
+        <v>22382.45107748004</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E150" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5692.8917</v>
-      </c>
-      <c r="G150" t="n">
-        <v>39586.45117748004</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>54.8</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="C157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2460.2304</v>
+      </c>
+      <c r="G157" t="n">
+        <v>24842.68147748004</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>26842.68147748004</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>21217.0281</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5625.653377480045</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4100</v>
-      </c>
-      <c r="G151" t="n">
-        <v>39586.45117748004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J151" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C152" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D152" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E152" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1695.9999</v>
-      </c>
-      <c r="G152" t="n">
-        <v>41282.45107748004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J152" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2812.5</v>
-      </c>
-      <c r="G153" t="n">
-        <v>41282.45107748004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C154" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E154" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>18900</v>
-      </c>
-      <c r="G154" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J154" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F155" t="n">
-        <v>652.9592</v>
-      </c>
-      <c r="G155" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J155" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="C156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F156" t="n">
-        <v>8214.3392</v>
-      </c>
-      <c r="G156" t="n">
-        <v>22382.45107748004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J156" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C157" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E157" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2460.2304</v>
-      </c>
-      <c r="G157" t="n">
-        <v>24842.68147748004</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="C158" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="D158" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E158" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>26842.68147748004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J158" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E159" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>21217.0281</v>
-      </c>
-      <c r="G159" t="n">
-        <v>5625.653377480045</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6160,9 +5814,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6199,9 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6238,9 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,9 +5925,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,9 +5962,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6355,9 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6394,9 +6036,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6433,9 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6472,9 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,6 +6122,6 @@
       <c r="M168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest POWR.xlsx
+++ b/BackTest/2019-11-01 BackTest POWR.xlsx
@@ -451,7 +451,7 @@
         <v>117019.4217</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>116427.7665</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>54.9</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>116427.7665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54.7</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>118398.7665</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.7</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>118398.7665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>54.8</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>118398.7665</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54.8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +683,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +716,15 @@
         <v>116911.7508</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +794,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +831,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +868,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,15 +938,13 @@
         <v>99791.60280000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1067,7 +1123,7 @@
         <v>108364.70052375</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1178,7 +1234,7 @@
         <v>104946.50162375</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1992,16 +2048,18 @@
         <v>105269.85662375</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
       <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -2031,7 +2089,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2064,7 +2126,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2097,7 +2163,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2130,7 +2200,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2163,7 +2237,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2196,7 +2274,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2229,7 +2311,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2262,7 +2348,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2295,7 +2385,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2328,7 +2422,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2361,7 +2459,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2394,7 +2496,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2427,7 +2533,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2460,7 +2570,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2493,7 +2607,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2526,7 +2644,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2559,7 +2681,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2592,7 +2718,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2625,7 +2755,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2658,7 +2792,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2691,7 +2829,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2724,7 +2866,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2757,7 +2903,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2790,7 +2940,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2823,7 +2977,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2856,7 +3014,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2889,7 +3051,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2922,7 +3088,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2955,7 +3125,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3162,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3021,7 +3199,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3050,11 +3232,15 @@
         <v>226640.63137748</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3083,11 +3269,15 @@
         <v>226640.63137748</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3120,7 +3310,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3153,7 +3347,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3186,7 +3384,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3219,7 +3421,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3252,7 +3458,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3285,7 +3495,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3318,7 +3532,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3351,7 +3569,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3384,7 +3606,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3417,7 +3643,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3450,7 +3680,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3483,7 +3717,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3516,7 +3754,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3549,7 +3791,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3582,7 +3828,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3615,7 +3865,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3648,7 +3902,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3681,7 +3939,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3714,7 +3976,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3747,7 +4013,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +4050,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3813,7 +4087,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +4124,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3879,7 +4161,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3912,7 +4198,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,7 +4235,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +4272,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4011,7 +4309,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4044,7 +4346,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4077,7 +4383,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4110,7 +4420,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4143,7 +4457,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4176,7 +4494,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4209,7 +4531,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4242,7 +4568,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4275,7 +4605,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4642,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4341,7 +4679,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4374,7 +4716,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4407,7 +4753,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4440,7 +4790,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4473,7 +4827,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4506,7 +4864,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4539,7 +4901,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4572,7 +4938,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4605,7 +4975,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4638,7 +5012,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4671,7 +5049,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4704,7 +5086,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4737,7 +5123,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4770,7 +5160,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4803,7 +5197,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4836,7 +5234,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4869,7 +5271,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4898,14 +5304,16 @@
         <v>125563.65357748</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -4931,7 +5339,7 @@
         <v>125405.38337748</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4964,7 +5372,7 @@
         <v>108767.75997748</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4997,7 +5405,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5096,7 +5504,7 @@
         <v>92130.13637748003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5261,7 +5669,7 @@
         <v>51132.01347748004</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5624,14 +6032,10 @@
         <v>22382.45107748004</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J155" t="n">
-        <v>54.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5664,14 +6068,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5703,14 +6101,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5772,17 +6164,11 @@
         <v>5625.653377480045</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>55.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6201,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +6234,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +6267,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5926,11 +6300,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5963,11 +6333,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +6366,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6037,11 +6399,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6074,11 +6432,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6111,11 +6465,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
